--- a/Лабы/1.1.1/1.1.1.xlsx
+++ b/Лабы/1.1.1/1.1.1.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Штанген</t>
   </si>
@@ -36,26 +37,195 @@
     <t>U2</t>
   </si>
   <si>
-    <t>I2</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
-    <t>I3</t>
+    <t>R1raw</t>
+  </si>
+  <si>
+    <t>R2raw</t>
+  </si>
+  <si>
+    <t>R3raw</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 </t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2 </t>
+  </si>
+  <si>
+    <t>I1raw</t>
+  </si>
+  <si>
+    <t>I2raw</t>
+  </si>
+  <si>
+    <t>I3raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2 </t>
+  </si>
+  <si>
+    <t>dшт</t>
+  </si>
+  <si>
+    <t>dмк</t>
+  </si>
+  <si>
+    <t>Номер измерения</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>± 1,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, мВ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I2raw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>± 0,01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, мА</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>± 1,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, мВ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I3raw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>± 0,01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, мА</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -74,13 +244,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -361,15 +576,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K12"/>
+  <dimension ref="A2:AU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AI8" sqref="Y7:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="47" width="4.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -401,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -435,8 +657,14 @@
       <c r="K3" s="1">
         <v>0.35</v>
       </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1">
+        <v>500</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -470,8 +698,38 @@
       <c r="K4" s="1">
         <v>0.35</v>
       </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4">
+        <v>3</v>
+      </c>
+      <c r="AO4">
+        <v>4</v>
+      </c>
+      <c r="AP4">
+        <v>5</v>
+      </c>
+      <c r="AQ4">
+        <v>6</v>
+      </c>
+      <c r="AR4">
+        <v>7</v>
+      </c>
+      <c r="AS4">
+        <v>8</v>
+      </c>
+      <c r="AT4">
+        <v>9</v>
+      </c>
+      <c r="AU4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -482,226 +740,1064 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
+      <c r="AK5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>8</v>
+      </c>
+      <c r="V6">
+        <v>9</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>576</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>488</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>424</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>392</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>344</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>320</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>300</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>268</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>252</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>404</v>
       </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2">
+        <v>580</v>
+      </c>
+      <c r="O7" s="2">
+        <v>440</v>
+      </c>
+      <c r="P7" s="2">
+        <v>364</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>324</v>
+      </c>
+      <c r="R7" s="2">
+        <v>284</v>
+      </c>
+      <c r="S7" s="2">
+        <v>276</v>
+      </c>
+      <c r="T7" s="2">
+        <v>248</v>
+      </c>
+      <c r="U7" s="2">
+        <v>224</v>
+      </c>
+      <c r="V7" s="2">
+        <v>204</v>
+      </c>
+      <c r="W7" s="2">
+        <v>180</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>592</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>492</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>400</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>336</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>296</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>268</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>248</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>212</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>188</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>180</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>114.1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>85.1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F8" s="2">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H8" s="2">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>50.1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>80.7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="1">
+        <v>192.74</v>
+      </c>
+      <c r="O8" s="1">
+        <v>146.38999999999999</v>
+      </c>
+      <c r="P8" s="1">
+        <v>120.66</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>108.06</v>
+      </c>
+      <c r="R8" s="1">
+        <v>93.85</v>
+      </c>
+      <c r="S8" s="1">
+        <v>91.24</v>
+      </c>
+      <c r="T8" s="1">
+        <v>82.94</v>
+      </c>
+      <c r="U8" s="1">
+        <v>75.05</v>
+      </c>
+      <c r="V8" s="1">
+        <v>67.33</v>
+      </c>
+      <c r="W8" s="1">
+        <v>60.11</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>291.8</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>242.35</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>199.57</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>165.06</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>145.87</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>132.36000000000001</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>122.33</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>105.38</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>92.6</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>88.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f>B7/B8</f>
+        <v>5.04820333041192</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:K9" si="0">C7/C8</f>
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4.9823736780258523</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.9855072463768115</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>5.009345794392523</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>5.0299401197604787</v>
+      </c>
+      <c r="K9">
+        <f>K7/K8</f>
+        <v>5.0061957868649314</v>
+      </c>
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <f>N7/N8</f>
+        <v>3.0092352391823178</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:W9" si="1">O7/O8</f>
+        <v>3.0056697861875814</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>3.0167412564230069</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>2.9983342587451416</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>3.0261054874800215</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>3.0249890398947832</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>2.9901133349409212</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>2.9846768820786145</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>3.0298529630179711</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>2.9945100648810516</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <f>Z7/Z8</f>
+        <v>2.0287868403015765</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" ref="AA9:AI9" si="2">AA7/AA8</f>
+        <v>2.0301217247782133</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>2.0043092649195771</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="2"/>
+        <v>2.0356234096692112</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>2.0292040858298486</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="2"/>
+        <v>2.0247809005741915</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>2.0273031962723782</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="2"/>
+        <v>2.0117669386980452</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="2"/>
+        <v>2.0302375809935205</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="2"/>
+        <v>2.0401224073444406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>B9*(1+B9/$N3)</f>
+        <v>5.0991720441422839</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:K10" si="3">C9*(1+C9/$N3)</f>
+        <v>5.05</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>5.0320217729608228</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>5.05</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>5.0352178113841628</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>5.0183249103043863</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>5.05</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>5.0595328849681191</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>5.0805407149772304</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>5.0563197793777794</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10" si="4">N9*(1+N9/$N3)</f>
+        <v>3.0273462326317908</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10" si="5">O9*(1+O9/$N3)</f>
+        <v>3.0237378879147832</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10" si="6">P9*(1+P9/$N3)</f>
+        <v>3.0349427120394163</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10" si="7">Q9*(1+Q9/$N3)</f>
+        <v>3.0163142753994716</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ref="R10" si="8">R9*(1+R9/$N3)</f>
+        <v>3.0444201163227351</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ref="S10" si="9">S9*(1+S9/$N3)</f>
+        <v>3.0432901572777502</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ref="T10" si="10">T9*(1+T9/$N3)</f>
+        <v>3.0079948904525042</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U10" si="11">U9*(1+U9/$N3)</f>
+        <v>3.0024934742594436</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ref="V10" si="12">V9*(1+V9/$N3)</f>
+        <v>3.0482129809729885</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ref="W10" si="13">W9*(1+W9/$N3)</f>
+        <v>3.0124442459383993</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10" si="14">Z9*(1+Z9/$N3)</f>
+        <v>2.0370187923883383</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" ref="AA10" si="15">AA9*(1+AA9/$N3)</f>
+        <v>2.0383645132130463</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" ref="AB10" si="16">AB9*(1+AB9/$N3)</f>
+        <v>2.0123437761784619</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" ref="AC10" si="17">AC9*(1+AC9/$N3)</f>
+        <v>2.0439109350011977</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" ref="AD10" si="18">AD9*(1+AD9/$N3)</f>
+        <v>2.0374394242737455</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" ref="AE10" si="19">AE9*(1+AE9/$N3)</f>
+        <v>2.0329803759648515</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" ref="AF10" si="20">AF9*(1+AF9/$N3)</f>
+        <v>2.0355231127716107</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" ref="AG10" si="21">AG9*(1+AG9/$N3)</f>
+        <v>2.0198613511293226</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" ref="AH10" si="22">AH9*(1+AH9/$N3)</f>
+        <v>2.0384813102640775</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" ref="AI10" si="23">AI9*(1+AI9/$N3)</f>
+        <v>2.0484466062183384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B11">
+        <f>B7/B10</f>
+        <v>112.95951480234615</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:AI11" si="24">C7/C10</f>
+        <v>96.633663366336634</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="24"/>
+        <v>84.260366733373644</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="24"/>
+        <v>77.623762376237622</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="24"/>
+        <v>68.318792331534837</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="24"/>
+        <v>63.766297662976633</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="24"/>
+        <v>59.405940594059409</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="24"/>
+        <v>52.969316751795105</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="24"/>
+        <v>49.601019682238565</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="24"/>
+        <v>79.900009814987499</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="24"/>
+        <v>191.58693965961839</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="24"/>
+        <v>145.51525836898213</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="24"/>
+        <v>119.93636603288627</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="24"/>
+        <v>107.41586267799977</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="24"/>
+        <v>93.28541697557668</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="24"/>
+        <v>90.691319504967751</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="24"/>
+        <v>82.446948559374846</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="24"/>
+        <v>74.604658401547056</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="24"/>
+        <v>66.924457468481506</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="24"/>
+        <v>59.752143211509839</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="24"/>
+        <v>290.62078475275098</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="24"/>
+        <v>241.36997912334485</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="24"/>
+        <v>198.77319409093178</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="24"/>
+        <v>164.39072478459201</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="24"/>
+        <v>145.28039286640904</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="24"/>
+        <v>131.82616181073925</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="24"/>
+        <v>121.8360029635419</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="24"/>
+        <v>104.95769914180936</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="24"/>
+        <v>92.225520564446725</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="24"/>
+        <v>87.871462919065351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:AJ3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="11" width="6.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" customWidth="1"/>
+    <col min="14" max="23" width="6.44140625" customWidth="1"/>
+    <col min="26" max="26" width="16.77734375" customWidth="1"/>
+    <col min="27" max="36" width="6.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="4">
+        <v>1</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2</v>
+      </c>
+      <c r="P1" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>4</v>
+      </c>
+      <c r="R1" s="4">
+        <v>5</v>
+      </c>
+      <c r="S1" s="4">
+        <v>6</v>
+      </c>
+      <c r="T1" s="4">
+        <v>7</v>
+      </c>
+      <c r="U1" s="4">
+        <v>8</v>
+      </c>
+      <c r="V1" s="4">
+        <v>9</v>
+      </c>
+      <c r="W1" s="4">
+        <v>10</v>
+      </c>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>4</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>5</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>6</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>7</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>8</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>9</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>576</v>
+      </c>
+      <c r="C2" s="5">
+        <v>488</v>
+      </c>
+      <c r="D2" s="5">
+        <v>424</v>
+      </c>
+      <c r="E2" s="5">
+        <v>392</v>
+      </c>
+      <c r="F2" s="5">
+        <v>344</v>
+      </c>
+      <c r="G2" s="5">
+        <v>320</v>
+      </c>
+      <c r="H2" s="5">
+        <v>300</v>
+      </c>
+      <c r="I2" s="5">
+        <v>268</v>
+      </c>
+      <c r="J2" s="5">
+        <v>252</v>
+      </c>
+      <c r="K2" s="5">
+        <v>404</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="5">
+        <v>580</v>
+      </c>
+      <c r="O2" s="5">
+        <v>440</v>
+      </c>
+      <c r="P2" s="5">
+        <v>364</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>324</v>
+      </c>
+      <c r="R2" s="5">
+        <v>284</v>
+      </c>
+      <c r="S2" s="5">
+        <v>276</v>
+      </c>
+      <c r="T2" s="5">
+        <v>248</v>
+      </c>
+      <c r="U2" s="5">
+        <v>224</v>
+      </c>
+      <c r="V2" s="5">
+        <v>204</v>
+      </c>
+      <c r="W2" s="5">
+        <v>180</v>
+      </c>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>592</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>492</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>400</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>336</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>296</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>268</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>248</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>212</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>188</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5">
         <v>114.1</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C3" s="5">
         <v>97.6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D3" s="5">
         <v>85.1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E3" s="5">
         <v>78.400000000000006</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F3" s="5">
         <v>69</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G3" s="5">
         <v>64.400000000000006</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H3" s="5">
         <v>60</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I3" s="5">
         <v>53.5</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J3" s="5">
         <v>50.1</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K3" s="5">
         <v>80.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>580</v>
-      </c>
-      <c r="C9" s="1">
-        <v>440</v>
-      </c>
-      <c r="D9" s="1">
-        <v>364</v>
-      </c>
-      <c r="E9" s="1">
-        <v>324</v>
-      </c>
-      <c r="F9" s="1">
-        <v>284</v>
-      </c>
-      <c r="G9" s="1">
-        <v>276</v>
-      </c>
-      <c r="H9" s="1">
-        <v>248</v>
-      </c>
-      <c r="I9" s="1">
-        <v>224</v>
-      </c>
-      <c r="J9" s="1">
-        <v>204</v>
-      </c>
-      <c r="K9" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="L3" s="4"/>
+      <c r="M3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="6">
         <v>192.74</v>
       </c>
-      <c r="C10" s="1">
+      <c r="O3" s="6">
         <v>146.38999999999999</v>
       </c>
-      <c r="D10" s="1">
+      <c r="P3" s="6">
         <v>120.66</v>
       </c>
-      <c r="E10" s="1">
+      <c r="Q3" s="6">
         <v>108.06</v>
       </c>
-      <c r="F10" s="1">
+      <c r="R3" s="6">
         <v>93.85</v>
       </c>
-      <c r="G10" s="1">
+      <c r="S3" s="6">
         <v>91.24</v>
       </c>
-      <c r="H10" s="1">
+      <c r="T3" s="6">
         <v>82.94</v>
       </c>
-      <c r="I10" s="1">
+      <c r="U3" s="6">
         <v>75.05</v>
       </c>
-      <c r="J10" s="1">
+      <c r="V3" s="6">
         <v>67.33</v>
       </c>
-      <c r="K10" s="1">
+      <c r="W3" s="6">
         <v>60.11</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <v>592</v>
-      </c>
-      <c r="C11" s="1">
-        <v>492</v>
-      </c>
-      <c r="D11" s="1">
-        <v>400</v>
-      </c>
-      <c r="E11" s="1">
-        <v>336</v>
-      </c>
-      <c r="F11" s="1">
-        <v>296</v>
-      </c>
-      <c r="G11" s="1">
-        <v>268</v>
-      </c>
-      <c r="H11" s="1">
-        <v>248</v>
-      </c>
-      <c r="I11" s="1">
-        <v>212</v>
-      </c>
-      <c r="J11" s="1">
-        <v>188</v>
-      </c>
-      <c r="K11" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="6">
         <v>291.8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="AB3" s="6">
         <v>242.35</v>
       </c>
-      <c r="D12" s="1">
+      <c r="AC3" s="6">
         <v>199.57</v>
       </c>
-      <c r="E12" s="1">
+      <c r="AD3" s="6">
         <v>165.06</v>
       </c>
-      <c r="F12" s="1">
+      <c r="AE3" s="6">
         <v>145.87</v>
       </c>
-      <c r="G12" s="1">
+      <c r="AF3" s="6">
         <v>132.36000000000001</v>
       </c>
-      <c r="H12" s="1">
+      <c r="AG3" s="6">
         <v>122.33</v>
       </c>
-      <c r="I12" s="1">
+      <c r="AH3" s="6">
         <v>105.38</v>
       </c>
-      <c r="J12" s="1">
+      <c r="AI3" s="6">
         <v>92.6</v>
       </c>
-      <c r="K12" s="1">
+      <c r="AJ3" s="6">
         <v>88.23</v>
       </c>
     </row>

--- a/Лабы/1.1.1/1.1.1.xlsx
+++ b/Лабы/1.1.1/1.1.1.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9309BEAE424713B7DE60702DAAF96B62FCBE6535" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3549F22C-6CFC-4A2B-84DC-F38534271EF3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Штанген</t>
   </si>
@@ -31,49 +38,25 @@
     <t>U1</t>
   </si>
   <si>
-    <t>I1</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
-    <t>R1raw</t>
-  </si>
-  <si>
-    <t>R2raw</t>
-  </si>
-  <si>
     <t>R3raw</t>
   </si>
   <si>
     <t>Ru</t>
   </si>
   <si>
-    <t xml:space="preserve">R1 </t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
-    <t xml:space="preserve">R2 </t>
-  </si>
-  <si>
     <t>I1raw</t>
   </si>
   <si>
-    <t>I2raw</t>
-  </si>
-  <si>
     <t>I3raw</t>
   </si>
   <si>
     <t xml:space="preserve">I3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2 </t>
   </si>
   <si>
     <t>dшт</t>
@@ -188,15 +171,117 @@
       <t>, мА</t>
     </r>
   </si>
+  <si>
+    <t>U1, мВ</t>
+  </si>
+  <si>
+    <t>I1raw, мА</t>
+  </si>
+  <si>
+    <t>δR1raw, о.е.</t>
+  </si>
+  <si>
+    <t>R1raw, Ом</t>
+  </si>
+  <si>
+    <t>ΔR1raw, Ом</t>
+  </si>
+  <si>
+    <t>R1,  Ом</t>
+  </si>
+  <si>
+    <t>ΔR1, Ом</t>
+  </si>
+  <si>
+    <t>δR1, о.е.</t>
+  </si>
+  <si>
+    <t>I1, мА</t>
+  </si>
+  <si>
+    <t>δI1, о.е.</t>
+  </si>
+  <si>
+    <t>ΔI1, мА</t>
+  </si>
+  <si>
+    <t>U2, мВ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, мВ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>δ</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>U1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, о.е.</t>
+    </r>
+  </si>
+  <si>
+    <t>ΔI1raw, мА</t>
+  </si>
+  <si>
+    <t>δI1raw, о.е.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +312,21 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -236,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -272,19 +372,227 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -295,6 +603,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,23 +922,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AU11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AU21"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AI8" sqref="Y7:AI8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" activeCellId="1" sqref="B7:K7 T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="47" width="4.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="47" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -623,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -658,13 +1007,13 @@
         <v>0.35</v>
       </c>
       <c r="M3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N3" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -729,19 +1078,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="13"/>
       <c r="AK5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AL5" s="1">
         <v>0.35</v>
@@ -774,69 +1139,71 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="B6">
+    <row r="6" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="14">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="14">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="14">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="14">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="14">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="14">
         <v>7</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="14">
         <v>8</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="14">
         <v>9</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="15">
         <v>10</v>
       </c>
-      <c r="N6">
+      <c r="M6" s="32"/>
+      <c r="N6" s="17">
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="14">
         <v>2</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="14">
         <v>3</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="14">
         <v>4</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="14">
         <v>5</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="14">
         <v>6</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="14">
         <v>7</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="14">
         <v>8</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="14">
         <v>9</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="15">
         <v>10</v>
       </c>
       <c r="AK6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AL6" s="1">
         <v>0.36</v>
@@ -869,76 +1236,76 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="30">
         <v>576</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="31">
         <v>488</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="31">
         <v>424</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="31">
         <v>392</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="31">
         <v>344</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="31">
         <v>320</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="31">
         <v>300</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="31">
         <v>268</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="31">
         <v>252</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="31">
         <v>404</v>
       </c>
-      <c r="M7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="M7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="30">
         <v>580</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="31">
         <v>440</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="31">
         <v>364</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="31">
         <v>324</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="31">
         <v>284</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="31">
         <v>276</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="31">
         <v>248</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="31">
         <v>224</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="31">
         <v>204</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="31">
         <v>180</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="1">
         <v>592</v>
@@ -971,75 +1338,75 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2">
-        <v>114.1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>97.6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>85.1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="F8" s="2">
-        <v>69</v>
-      </c>
-      <c r="G8" s="2">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="H8" s="2">
-        <v>60</v>
-      </c>
-      <c r="I8" s="2">
-        <v>53.5</v>
-      </c>
-      <c r="J8" s="2">
-        <v>50.1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>80.7</v>
-      </c>
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="1">
-        <v>192.74</v>
-      </c>
-      <c r="O8" s="1">
-        <v>146.38999999999999</v>
-      </c>
-      <c r="P8" s="1">
-        <v>120.66</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>108.06</v>
-      </c>
-      <c r="R8" s="1">
-        <v>93.85</v>
-      </c>
-      <c r="S8" s="1">
-        <v>91.24</v>
-      </c>
-      <c r="T8" s="1">
-        <v>82.94</v>
-      </c>
-      <c r="U8" s="1">
-        <v>75.05</v>
-      </c>
-      <c r="V8" s="1">
-        <v>67.33</v>
-      </c>
-      <c r="W8" s="1">
-        <v>60.11</v>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="S8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="T8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="V8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1.2</v>
       </c>
       <c r="Y8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Z8" s="1">
         <v>291.8</v>
@@ -1072,732 +1439,1308 @@
         <v>88.23</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <f>B7/B8</f>
-        <v>5.04820333041192</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:K9" si="0">C7/C8</f>
-        <v>5</v>
-      </c>
-      <c r="D9">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="18">
+        <v>2E-3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="8">
+        <f>H8/H7</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I9" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J9" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K9" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="18">
+        <f>N8/N7</f>
+        <v>2.0689655172413794E-3</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" ref="O9:W9" si="0">O8/O7</f>
+        <v>2.7272727272727271E-3</v>
+      </c>
+      <c r="P9" s="18">
         <f t="shared" si="0"/>
-        <v>4.9823736780258523</v>
-      </c>
-      <c r="E9">
+        <v>3.2967032967032967E-3</v>
+      </c>
+      <c r="Q9" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F9">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="R9" s="18">
         <f t="shared" si="0"/>
-        <v>4.9855072463768115</v>
-      </c>
-      <c r="G9">
+        <v>4.2253521126760559E-3</v>
+      </c>
+      <c r="S9" s="18">
         <f t="shared" si="0"/>
-        <v>4.9689440993788816</v>
-      </c>
-      <c r="H9">
+        <v>4.3478260869565218E-3</v>
+      </c>
+      <c r="T9" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I9">
+        <v>4.8387096774193551E-3</v>
+      </c>
+      <c r="U9" s="18">
         <f t="shared" si="0"/>
-        <v>5.009345794392523</v>
-      </c>
-      <c r="J9">
+        <v>5.3571428571428572E-3</v>
+      </c>
+      <c r="V9" s="18">
         <f t="shared" si="0"/>
-        <v>5.0299401197604787</v>
-      </c>
-      <c r="K9">
-        <f>K7/K8</f>
-        <v>5.0061957868649314</v>
-      </c>
-      <c r="M9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9">
-        <f>N7/N8</f>
-        <v>3.0092352391823178</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ref="O9:W9" si="1">O7/O8</f>
-        <v>3.0056697861875814</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="1"/>
-        <v>3.0167412564230069</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>2.9983342587451416</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="1"/>
-        <v>3.0261054874800215</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="1"/>
-        <v>3.0249890398947832</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="1"/>
-        <v>2.9901133349409212</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="1"/>
-        <v>2.9846768820786145</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="1"/>
-        <v>3.0298529630179711</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="1"/>
-        <v>2.9945100648810516</v>
+        <v>5.8823529411764705E-3</v>
+      </c>
+      <c r="W9" s="18">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="Y9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z9">
         <f>Z7/Z8</f>
         <v>2.0287868403015765</v>
       </c>
       <c r="AA9">
-        <f t="shared" ref="AA9:AI9" si="2">AA7/AA8</f>
+        <f t="shared" ref="AA9:AI9" si="1">AA7/AA8</f>
         <v>2.0301217247782133</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0043092649195771</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0356234096692112</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0292040858298486</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0247809005741915</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0273031962723782</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0117669386980452</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0302375809935205</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0401224073444406</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <f>B9*(1+B9/$N3)</f>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="19">
+        <v>114.1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>97.6</v>
+      </c>
+      <c r="D10" s="9">
+        <v>85.1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F10" s="9">
+        <v>69</v>
+      </c>
+      <c r="G10" s="9">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H10" s="9">
+        <v>60</v>
+      </c>
+      <c r="I10" s="9">
+        <v>53.5</v>
+      </c>
+      <c r="J10" s="9">
+        <v>50.1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>80.7</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="21">
+        <v>192.74</v>
+      </c>
+      <c r="O10" s="11">
+        <v>146.38999999999999</v>
+      </c>
+      <c r="P10" s="11">
+        <v>120.66</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>108.06</v>
+      </c>
+      <c r="R10" s="11">
+        <v>93.85</v>
+      </c>
+      <c r="S10" s="11">
+        <v>91.24</v>
+      </c>
+      <c r="T10" s="11">
+        <v>82.94</v>
+      </c>
+      <c r="U10" s="11">
+        <v>75.05</v>
+      </c>
+      <c r="V10" s="11">
+        <v>67.33</v>
+      </c>
+      <c r="W10" s="11">
+        <v>60.11</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10" si="2">Z9*(1+Z9/$N3)</f>
+        <v>2.0370187923883383</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" ref="AA10" si="3">AA9*(1+AA9/$N3)</f>
+        <v>2.0383645132130463</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" ref="AB10" si="4">AB9*(1+AB9/$N3)</f>
+        <v>2.0123437761784619</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" ref="AC10" si="5">AC9*(1+AC9/$N3)</f>
+        <v>2.0439109350011977</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" ref="AD10" si="6">AD9*(1+AD9/$N3)</f>
+        <v>2.0374394242737455</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" ref="AE10" si="7">AE9*(1+AE9/$N3)</f>
+        <v>2.0329803759648515</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" ref="AF10" si="8">AF9*(1+AF9/$N3)</f>
+        <v>2.0355231127716107</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" ref="AG10" si="9">AG9*(1+AG9/$N3)</f>
+        <v>2.0198613511293226</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" ref="AH10" si="10">AH9*(1+AH9/$N3)</f>
+        <v>2.0384813102640775</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" ref="AI10" si="11">AI9*(1+AI9/$N3)</f>
+        <v>2.0484466062183384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="18"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="Y11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" ref="C11:AI11" si="12">Z7/Z10</f>
+        <v>290.62078475275098</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="12"/>
+        <v>241.36997912334485</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="12"/>
+        <v>198.77319409093178</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="12"/>
+        <v>164.39072478459201</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="12"/>
+        <v>145.28039286640904</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="12"/>
+        <v>131.82616181073925</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="12"/>
+        <v>121.8360029635419</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="12"/>
+        <v>104.95769914180936</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="12"/>
+        <v>92.225520564446725</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="12"/>
+        <v>87.871462919065351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.4E-3</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="18"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="20">
+        <f>B7/B10</f>
+        <v>5.04820333041192</v>
+      </c>
+      <c r="C13" s="10">
+        <f>C7/C10</f>
+        <v>5</v>
+      </c>
+      <c r="D13" s="11">
+        <f>D7/D10</f>
+        <v>4.9823736780258523</v>
+      </c>
+      <c r="E13" s="11">
+        <f>E7/E10</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="11">
+        <f>F7/F10</f>
+        <v>4.9855072463768115</v>
+      </c>
+      <c r="G13" s="11">
+        <f>G7/G10</f>
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="H13" s="11">
+        <f>H7/H10</f>
+        <v>5</v>
+      </c>
+      <c r="I13" s="11">
+        <f>I7/I10</f>
+        <v>5.009345794392523</v>
+      </c>
+      <c r="J13" s="11">
+        <f>J7/J10</f>
+        <v>5.0299401197604787</v>
+      </c>
+      <c r="K13" s="11">
+        <f>K7/K10</f>
+        <v>5.0061957868649314</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="18">
+        <f>N7/N10</f>
+        <v>3.0092352391823178</v>
+      </c>
+      <c r="O13" s="8">
+        <f>O7/O10</f>
+        <v>3.0056697861875814</v>
+      </c>
+      <c r="P13" s="8">
+        <f>P7/P10</f>
+        <v>3.0167412564230069</v>
+      </c>
+      <c r="Q13" s="8">
+        <f>Q7/Q10</f>
+        <v>2.9983342587451416</v>
+      </c>
+      <c r="R13" s="8">
+        <f>R7/R10</f>
+        <v>3.0261054874800215</v>
+      </c>
+      <c r="S13" s="8">
+        <f>S7/S10</f>
+        <v>3.0249890398947832</v>
+      </c>
+      <c r="T13" s="8">
+        <f>T7/T10</f>
+        <v>2.9901133349409212</v>
+      </c>
+      <c r="U13" s="8">
+        <f>U7/U10</f>
+        <v>2.9846768820786145</v>
+      </c>
+      <c r="V13" s="8">
+        <f>V7/V10</f>
+        <v>3.0298529630179711</v>
+      </c>
+      <c r="W13" s="8">
+        <f>W7/W10</f>
+        <v>2.9945100648810516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C14" s="8">
+        <f>C13*C15</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="18"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="18">
+        <f>B12+B9</f>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="C15" s="8">
+        <f>C12+C9</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="8">
+        <f>D12+D9</f>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="E15" s="8">
+        <f>E12+E9</f>
+        <v>4.3E-3</v>
+      </c>
+      <c r="F15" s="8">
+        <f>F12+F9</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="G15" s="8">
+        <f>G12+G9</f>
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="H15" s="8">
+        <f>H12+H9</f>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="I15" s="8">
+        <f>I12+I9</f>
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="J15" s="8">
+        <f>J12+J9</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K15" s="8">
+        <f>K12+K9</f>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="18"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="21">
+        <f>B13*(1+B13/$N3)</f>
         <v>5.0991720441422839</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:K10" si="3">C9*(1+C9/$N3)</f>
+      <c r="C16" s="8">
+        <f>C13*(1+C13/$N3)</f>
         <v>5.05</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="3"/>
+      <c r="D16" s="11">
+        <f>D13*(1+D13/$N3)</f>
         <v>5.0320217729608228</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
+      <c r="E16" s="8">
+        <f>E13*(1+E13/$N3)</f>
         <v>5.05</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
+      <c r="F16" s="11">
+        <f>F13*(1+F13/$N3)</f>
         <v>5.0352178113841628</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
+      <c r="G16" s="11">
+        <f>G13*(1+G13/$N3)</f>
         <v>5.0183249103043863</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
+      <c r="H16" s="8">
+        <f>H13*(1+H13/$N3)</f>
         <v>5.05</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
+      <c r="I16" s="11">
+        <f>I13*(1+I13/$N3)</f>
         <v>5.0595328849681191</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
+      <c r="J16" s="11">
+        <f>J13*(1+J13/$N3)</f>
         <v>5.0805407149772304</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
+      <c r="K16" s="11">
+        <f>K13*(1+K13/$N3)</f>
         <v>5.0563197793777794</v>
       </c>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ref="N10" si="4">N9*(1+N9/$N3)</f>
+      <c r="M16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="18">
+        <f>N13*(1+N13/$N3)</f>
         <v>3.0273462326317908</v>
       </c>
-      <c r="O10">
-        <f t="shared" ref="O10" si="5">O9*(1+O9/$N3)</f>
+      <c r="O16" s="8">
+        <f>O13*(1+O13/$N3)</f>
         <v>3.0237378879147832</v>
       </c>
-      <c r="P10">
-        <f t="shared" ref="P10" si="6">P9*(1+P9/$N3)</f>
+      <c r="P16" s="8">
+        <f>P13*(1+P13/$N3)</f>
         <v>3.0349427120394163</v>
       </c>
-      <c r="Q10">
-        <f t="shared" ref="Q10" si="7">Q9*(1+Q9/$N3)</f>
+      <c r="Q16" s="8">
+        <f>Q13*(1+Q13/$N3)</f>
         <v>3.0163142753994716</v>
       </c>
-      <c r="R10">
-        <f t="shared" ref="R10" si="8">R9*(1+R9/$N3)</f>
+      <c r="R16" s="8">
+        <f>R13*(1+R13/$N3)</f>
         <v>3.0444201163227351</v>
       </c>
-      <c r="S10">
-        <f t="shared" ref="S10" si="9">S9*(1+S9/$N3)</f>
+      <c r="S16" s="8">
+        <f>S13*(1+S13/$N3)</f>
         <v>3.0432901572777502</v>
       </c>
-      <c r="T10">
-        <f t="shared" ref="T10" si="10">T9*(1+T9/$N3)</f>
+      <c r="T16" s="8">
+        <f>T13*(1+T13/$N3)</f>
         <v>3.0079948904525042</v>
       </c>
-      <c r="U10">
-        <f t="shared" ref="U10" si="11">U9*(1+U9/$N3)</f>
+      <c r="U16" s="8">
+        <f>U13*(1+U13/$N3)</f>
         <v>3.0024934742594436</v>
       </c>
-      <c r="V10">
-        <f t="shared" ref="V10" si="12">V9*(1+V9/$N3)</f>
+      <c r="V16" s="8">
+        <f>V13*(1+V13/$N3)</f>
         <v>3.0482129809729885</v>
       </c>
-      <c r="W10">
-        <f t="shared" ref="W10" si="13">W9*(1+W9/$N3)</f>
+      <c r="W16" s="8">
+        <f>W13*(1+W13/$N3)</f>
         <v>3.0124442459383993</v>
       </c>
-      <c r="Y10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" ref="Z10" si="14">Z9*(1+Z9/$N3)</f>
-        <v>2.0370187923883383</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" ref="AA10" si="15">AA9*(1+AA9/$N3)</f>
-        <v>2.0383645132130463</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" ref="AB10" si="16">AB9*(1+AB9/$N3)</f>
-        <v>2.0123437761784619</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" ref="AC10" si="17">AC9*(1+AC9/$N3)</f>
-        <v>2.0439109350011977</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" ref="AD10" si="18">AD9*(1+AD9/$N3)</f>
-        <v>2.0374394242737455</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" ref="AE10" si="19">AE9*(1+AE9/$N3)</f>
-        <v>2.0329803759648515</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" ref="AF10" si="20">AF9*(1+AF9/$N3)</f>
-        <v>2.0355231127716107</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" ref="AG10" si="21">AG9*(1+AG9/$N3)</f>
-        <v>2.0198613511293226</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" ref="AH10" si="22">AH9*(1+AH9/$N3)</f>
-        <v>2.0384813102640775</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" ref="AI10" si="23">AI9*(1+AI9/$N3)</f>
-        <v>2.0484466062183384</v>
-      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <f>B7/B10</f>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="8">
+        <f>3*D14</f>
+        <v>0.06</v>
+      </c>
+      <c r="E17" s="8">
+        <f>3*E14</f>
+        <v>0.06</v>
+      </c>
+      <c r="F17" s="8">
+        <f>3*F14</f>
+        <v>0.06</v>
+      </c>
+      <c r="G17" s="8">
+        <f>3*G14</f>
+        <v>0.09</v>
+      </c>
+      <c r="H17" s="8">
+        <f>3*H14</f>
+        <v>0.09</v>
+      </c>
+      <c r="I17" s="8">
+        <f>3*I14</f>
+        <v>0.09</v>
+      </c>
+      <c r="J17" s="8">
+        <f>3*J14</f>
+        <v>0.12</v>
+      </c>
+      <c r="K17" s="8">
+        <f>3*K14</f>
+        <v>0.06</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="19">
+        <f>B7/B16</f>
         <v>112.95951480234615</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:AI11" si="24">C7/C10</f>
+      <c r="C19" s="9">
+        <f>C7/C16</f>
         <v>96.633663366336634</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="24"/>
+      <c r="D19" s="9">
+        <f>D7/D16</f>
         <v>84.260366733373644</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="24"/>
+      <c r="E19" s="9">
+        <f>E7/E16</f>
         <v>77.623762376237622</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="24"/>
+      <c r="F19" s="9">
+        <f>F7/F16</f>
         <v>68.318792331534837</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="24"/>
+      <c r="G19" s="9">
+        <f>G7/G16</f>
         <v>63.766297662976633</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="24"/>
+      <c r="H19" s="9">
+        <f>H7/H16</f>
         <v>59.405940594059409</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="24"/>
+      <c r="I19" s="9">
+        <f>I7/I16</f>
         <v>52.969316751795105</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="24"/>
+      <c r="J19" s="9">
+        <f>J7/J16</f>
         <v>49.601019682238565</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="24"/>
+      <c r="K19" s="9">
+        <f>K7/K16</f>
         <v>79.900009814987499</v>
       </c>
-      <c r="M11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="24"/>
+      <c r="M19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="18">
+        <f>N7/N16</f>
         <v>191.58693965961839</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="24"/>
+      <c r="O19" s="8">
+        <f>O7/O16</f>
         <v>145.51525836898213</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="24"/>
+      <c r="P19" s="8">
+        <f>P7/P16</f>
         <v>119.93636603288627</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="24"/>
+      <c r="Q19" s="8">
+        <f>Q7/Q16</f>
         <v>107.41586267799977</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="24"/>
+      <c r="R19" s="8">
+        <f>R7/R16</f>
         <v>93.28541697557668</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="24"/>
+      <c r="S19" s="8">
+        <f>S7/S16</f>
         <v>90.691319504967751</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="24"/>
+      <c r="T19" s="8">
+        <f>T7/T16</f>
         <v>82.446948559374846</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="24"/>
+      <c r="U19" s="8">
+        <f>U7/U16</f>
         <v>74.604658401547056</v>
       </c>
-      <c r="V11">
-        <f t="shared" si="24"/>
+      <c r="V19" s="8">
+        <f>V7/V16</f>
         <v>66.924457468481506</v>
       </c>
-      <c r="W11">
-        <f t="shared" si="24"/>
+      <c r="W19" s="8">
+        <f>W7/W16</f>
         <v>59.752143211509839</v>
       </c>
-      <c r="Y11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="24"/>
-        <v>290.62078475275098</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="24"/>
-        <v>241.36997912334485</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="24"/>
-        <v>198.77319409093178</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="24"/>
-        <v>164.39072478459201</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="24"/>
-        <v>145.28039286640904</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="24"/>
-        <v>131.82616181073925</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="24"/>
-        <v>121.8360029635419</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="24"/>
-        <v>104.95769914180936</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="24"/>
-        <v>92.225520564446725</v>
-      </c>
-      <c r="AI11">
-        <f t="shared" si="24"/>
-        <v>87.871462919065351</v>
-      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="19">
+        <f>B19*B21</f>
+        <v>1.3555141776281538</v>
+      </c>
+      <c r="C20" s="9">
+        <f>C19*C21</f>
+        <v>1.1596039603960397</v>
+      </c>
+      <c r="D20" s="9">
+        <f>D19*D21</f>
+        <v>1.2639055010006046</v>
+      </c>
+      <c r="E20" s="9">
+        <f>E19*E21</f>
+        <v>1.1643564356435643</v>
+      </c>
+      <c r="F20" s="9">
+        <f>F19*F21</f>
+        <v>1.0247818849730226</v>
+      </c>
+      <c r="G20" s="9">
+        <f>G19*G21</f>
+        <v>1.5303911439114393</v>
+      </c>
+      <c r="H20" s="9">
+        <f>H19*H21</f>
+        <v>1.4257425742574259</v>
+      </c>
+      <c r="I20" s="9">
+        <f>I19*I21</f>
+        <v>1.2712636020430825</v>
+      </c>
+      <c r="J20" s="9">
+        <f>J19*J21</f>
+        <v>1.2400254920559641</v>
+      </c>
+      <c r="K20" s="9">
+        <f>K19*K21</f>
+        <v>1.1985001472248125</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="18"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="20">
+        <f>B18+B9</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="C21" s="10">
+        <f>C18+C9</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D21" s="10">
+        <f>D18+D9</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E21" s="10">
+        <f>E18+E9</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F21" s="10">
+        <f>F18+F9</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G21" s="10">
+        <f>G18+G9</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H21" s="10">
+        <f>H18+H9</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="I21" s="10">
+        <f>I18+I9</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="J21" s="10">
+        <f>J18+J9</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K21" s="10">
+        <f>K18+K9</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="18"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="M5:M6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AJ3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="11" width="6.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" customWidth="1"/>
-    <col min="14" max="23" width="6.44140625" customWidth="1"/>
-    <col min="26" max="26" width="16.77734375" customWidth="1"/>
-    <col min="27" max="36" width="6.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="11" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="23" width="6.42578125" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="36" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="4">
+    <row r="1" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>6</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>7</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>8</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>9</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>10</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="4">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3">
         <v>1</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>2</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>3</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="3">
         <v>4</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="3">
         <v>5</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="3">
         <v>6</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="3">
         <v>7</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="3">
         <v>8</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="3">
         <v>9</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="3">
         <v>10</v>
       </c>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="4">
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="3">
         <v>1</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="3">
         <v>2</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1" s="3">
         <v>3</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AD1" s="3">
         <v>4</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1" s="3">
         <v>5</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="3">
         <v>6</v>
       </c>
-      <c r="AG1" s="4">
+      <c r="AG1" s="3">
         <v>7</v>
       </c>
-      <c r="AH1" s="4">
+      <c r="AH1" s="3">
         <v>8</v>
       </c>
-      <c r="AI1" s="4">
+      <c r="AI1" s="3">
         <v>9</v>
       </c>
-      <c r="AJ1" s="4">
+      <c r="AJ1" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>576</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>488</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>424</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>392</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>344</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>320</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>300</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>268</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>252</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>404</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="L2" s="3"/>
+      <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4">
         <v>580</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>440</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>364</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>324</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>284</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>276</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <v>248</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <v>224</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>204</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="4">
         <v>180</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA2" s="6">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="5">
         <v>592</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="5">
         <v>492</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2" s="5">
         <v>400</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AD2" s="5">
         <v>336</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AE2" s="5">
         <v>296</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AF2" s="5">
         <v>268</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AG2" s="5">
         <v>248</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AH2" s="5">
         <v>212</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AI2" s="5">
         <v>188</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AJ2" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
         <v>114.1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>97.6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>85.1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>78.400000000000006</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>69</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>64.400000000000006</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>60</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>53.5</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>50.1</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>80.7</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="L3" s="3"/>
+      <c r="M3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="5">
         <v>192.74</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>146.38999999999999</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>120.66</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <v>108.06</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>93.85</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>91.24</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <v>82.94</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="5">
         <v>75.05</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="5">
         <v>67.33</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="5">
         <v>60.11</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA3" s="6">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="5">
         <v>291.8</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="5">
         <v>242.35</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="5">
         <v>199.57</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="5">
         <v>165.06</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="5">
         <v>145.87</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="5">
         <v>132.36000000000001</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AG3" s="5">
         <v>122.33</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AH3" s="5">
         <v>105.38</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AI3" s="5">
         <v>92.6</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AJ3" s="5">
         <v>88.23</v>
       </c>
     </row>

--- a/Лабы/1.1.1/1.1.1.xlsx
+++ b/Лабы/1.1.1/1.1.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9309BEAE424713B7DE60702DAAF96B62FCBE6535" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3549F22C-6CFC-4A2B-84DC-F38534271EF3}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_9309BEAE424713B7DE60702DAAF96B62FCBE6535" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5ABF6CD5-BBE2-4682-A912-8DB434DECDF6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Штанген</t>
   </si>
@@ -38,25 +38,10 @@
     <t>U1</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>R3raw</t>
-  </si>
-  <si>
     <t>Ru</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>I1raw</t>
-  </si>
-  <si>
-    <t>I3raw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I3 </t>
   </si>
   <si>
     <t>dшт</t>
@@ -208,37 +193,100 @@
     <t>U2, мВ</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, мВ</t>
-    </r>
+    <t>ΔI1raw, мА</t>
+  </si>
+  <si>
+    <t>δI1raw, о.е.</t>
+  </si>
+  <si>
+    <t>ΔU2, мВ</t>
+  </si>
+  <si>
+    <t>δU2, о.е.</t>
+  </si>
+  <si>
+    <t>I2raw, мА</t>
+  </si>
+  <si>
+    <t>ΔI2raw, мА</t>
+  </si>
+  <si>
+    <t>δI2raw, о.е.</t>
+  </si>
+  <si>
+    <t>R2raw, Ом</t>
+  </si>
+  <si>
+    <t>ΔR2raw, Ом</t>
+  </si>
+  <si>
+    <t>δR2raw, о.е.</t>
+  </si>
+  <si>
+    <t>R2,  Ом</t>
+  </si>
+  <si>
+    <t>ΔR2, Ом</t>
+  </si>
+  <si>
+    <t>δR2, о.е.</t>
+  </si>
+  <si>
+    <t>I2, мА</t>
+  </si>
+  <si>
+    <t>ΔI2, мА</t>
+  </si>
+  <si>
+    <t>δI2, о.е.</t>
+  </si>
+  <si>
+    <t>U3, мВ</t>
+  </si>
+  <si>
+    <t>ΔU3, мВ</t>
+  </si>
+  <si>
+    <t>δU3, о.е.</t>
+  </si>
+  <si>
+    <t>I3raw, мА</t>
+  </si>
+  <si>
+    <t>ΔI3raw, мА</t>
+  </si>
+  <si>
+    <t>δI3raw, о.е.</t>
+  </si>
+  <si>
+    <t>R3raw, Ом</t>
+  </si>
+  <si>
+    <t>ΔR3raw, Ом</t>
+  </si>
+  <si>
+    <t>δR3raw, о.е.</t>
+  </si>
+  <si>
+    <t>R3,  Ом</t>
+  </si>
+  <si>
+    <t>ΔR3, Ом</t>
+  </si>
+  <si>
+    <t>δR3, о.е.</t>
+  </si>
+  <si>
+    <t>I3, мА</t>
+  </si>
+  <si>
+    <t>ΔI3, мА</t>
+  </si>
+  <si>
+    <t>δI3, о.е.</t>
+  </si>
+  <si>
+    <t>ΔU1, мВ</t>
   </si>
   <si>
     <r>
@@ -247,41 +295,36 @@
     <r>
       <rPr>
         <u/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>U1</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>, о.е.</t>
     </r>
-  </si>
-  <si>
-    <t>ΔI1raw, мА</t>
-  </si>
-  <si>
-    <t>δI1raw, о.е.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="174" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,18 +356,25 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -336,7 +386,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -581,14 +631,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,43 +689,148 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -925,223 +1115,246 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AU21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" activeCellId="1" sqref="B7:K7 T12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="88" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="47" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="6"/>
+    <col min="13" max="13" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="6"/>
+    <col min="25" max="25" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="35" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="6"/>
+    <col min="37" max="37" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="47" width="4.42578125" style="6" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>7</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>0.35</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>0.35</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>0.35</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>0.35</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>0.35</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>0.35</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="7">
         <v>0.35</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="7">
         <v>0.35</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="7">
         <v>0.35</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="7">
         <v>0.35</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="6">
         <v>5</v>
       </c>
-      <c r="N3" s="1">
-        <v>500</v>
+      <c r="AQ4" s="6">
+        <v>6</v>
+      </c>
+      <c r="AR4" s="6">
+        <v>7</v>
+      </c>
+      <c r="AS4" s="6">
+        <v>8</v>
+      </c>
+      <c r="AT4" s="6">
+        <v>9</v>
+      </c>
+      <c r="AU4" s="6">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="K4" s="1">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="33"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="55"/>
+      <c r="AK5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="7">
         <v>0.35</v>
       </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AM4">
-        <v>2</v>
-      </c>
-      <c r="AN4">
-        <v>3</v>
-      </c>
-      <c r="AO4">
-        <v>4</v>
-      </c>
-      <c r="AP4">
-        <v>5</v>
-      </c>
-      <c r="AQ4">
-        <v>6</v>
-      </c>
-      <c r="AR4">
-        <v>7</v>
-      </c>
-      <c r="AS4">
-        <v>8</v>
-      </c>
-      <c r="AT4">
-        <v>9</v>
-      </c>
-      <c r="AU4">
-        <v>10</v>
+      <c r="AM5" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="13"/>
-      <c r="AK5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="17">
+    <row r="6" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13">
         <v>1</v>
       </c>
       <c r="C6" s="14">
@@ -1171,1243 +1384,1848 @@
       <c r="K6" s="15">
         <v>10</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="17">
+      <c r="M6" s="34"/>
+      <c r="N6" s="35">
         <v>1</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="36">
         <v>2</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="36">
         <v>3</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="36">
         <v>4</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="36">
         <v>5</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="36">
         <v>6</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="36">
         <v>7</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="36">
         <v>8</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="36">
         <v>9</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="37">
         <v>10</v>
       </c>
-      <c r="AK6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL6" s="1">
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="57">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="58">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="58">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="58">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="58">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="58">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="58">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="58">
+        <v>8</v>
+      </c>
+      <c r="AH6" s="58">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="59">
+        <v>10</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL6" s="7">
         <v>0.36</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="7">
         <v>0.37</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="7">
         <v>0.36</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="7">
         <v>0.36</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AP6" s="7">
         <v>0.37</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AQ6" s="7">
         <v>0.36</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AR6" s="7">
         <v>0.36</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AS6" s="7">
         <v>0.36</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AT6" s="7">
         <v>0.36</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AU6" s="7">
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="30">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="17">
         <v>576</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="18">
         <v>488</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="18">
         <v>424</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="18">
         <v>392</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="18">
         <v>344</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="18">
         <v>320</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="18">
         <v>300</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="18">
         <v>268</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="18">
         <v>252</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="18">
         <v>404</v>
       </c>
-      <c r="M7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="30">
+      <c r="M7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="39">
         <v>580</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="40">
         <v>440</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="40">
         <v>364</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="40">
         <v>324</v>
       </c>
-      <c r="R7" s="31">
+      <c r="R7" s="40">
         <v>284</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="40">
         <v>276</v>
       </c>
-      <c r="T7" s="31">
+      <c r="T7" s="40">
         <v>248</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="40">
         <v>224</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V7" s="40">
         <v>204</v>
       </c>
-      <c r="W7" s="31">
+      <c r="W7" s="40">
         <v>180</v>
       </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="1">
+      <c r="X7" s="19"/>
+      <c r="Y7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="39">
         <v>592</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="40">
         <v>492</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="40">
         <v>400</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="40">
         <v>336</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="40">
         <v>296</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="40">
         <v>268</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7" s="40">
         <v>248</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7" s="40">
         <v>212</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="40">
         <v>188</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="40">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="18">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="21">
         <v>1.2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="22">
         <v>1.2</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="22">
         <v>1.2</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="22">
         <v>1.2</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="22">
         <v>1.2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="22">
         <v>1.2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="22">
         <v>1.2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="22">
         <v>1.2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="22">
         <v>1.2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="22">
         <v>1.2</v>
       </c>
-      <c r="M8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="8">
+      <c r="M8" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="42">
         <v>1.2</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="42">
         <v>1.2</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="42">
         <v>1.2</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="42">
         <v>1.2</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="42">
         <v>1.2</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="42">
         <v>1.2</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="42">
         <v>1.2</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="42">
         <v>1.2</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="42">
         <v>1.2</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="42">
         <v>1.2</v>
       </c>
-      <c r="Y8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>291.8</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>242.35</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>199.57</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>165.06</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>145.87</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>132.36000000000001</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>122.33</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>105.38</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>92.6</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>88.23</v>
+      <c r="Y8" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AA8" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AB8" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AC8" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AD8" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AE8" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AF8" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AG8" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AH8" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="AI8" s="42">
+        <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="18">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="21">
         <v>2E-3</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="22">
         <v>2E-3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="22">
         <f>H8/H7</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="43">
+        <v>2E-3</v>
+      </c>
+      <c r="O9" s="43">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P9" s="43">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q9" s="43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R9" s="43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S9" s="43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="T9" s="43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U9" s="43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V9" s="43">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="W9" s="43">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Y9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z9" s="43">
+        <v>2E-3</v>
+      </c>
+      <c r="AA9" s="43">
+        <v>2E-3</v>
+      </c>
+      <c r="AB9" s="43">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AC9" s="43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AD9" s="43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AE9" s="43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AF9" s="43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG9" s="43">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AH9" s="43">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AI9" s="43">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="24">
+        <v>114.1</v>
+      </c>
+      <c r="C10" s="25">
+        <v>97.6</v>
+      </c>
+      <c r="D10" s="25">
+        <v>85.1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F10" s="25">
+        <v>69</v>
+      </c>
+      <c r="G10" s="25">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H10" s="25">
+        <v>60</v>
+      </c>
+      <c r="I10" s="25">
+        <v>53.5</v>
+      </c>
+      <c r="J10" s="25">
+        <v>50.1</v>
+      </c>
+      <c r="K10" s="25">
+        <v>80.7</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="44">
+        <v>192.74</v>
+      </c>
+      <c r="O10" s="45">
+        <v>146.38999999999999</v>
+      </c>
+      <c r="P10" s="45">
+        <v>120.66</v>
+      </c>
+      <c r="Q10" s="45">
+        <v>108.06</v>
+      </c>
+      <c r="R10" s="45">
+        <v>93.85</v>
+      </c>
+      <c r="S10" s="45">
+        <v>91.24</v>
+      </c>
+      <c r="T10" s="45">
+        <v>82.94</v>
+      </c>
+      <c r="U10" s="45">
+        <v>75.05</v>
+      </c>
+      <c r="V10" s="45">
+        <v>67.33</v>
+      </c>
+      <c r="W10" s="45">
+        <v>60.11</v>
+      </c>
+      <c r="Y10" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="44">
+        <v>291.8</v>
+      </c>
+      <c r="AA10" s="45">
+        <v>242.35</v>
+      </c>
+      <c r="AB10" s="45">
+        <v>199.57</v>
+      </c>
+      <c r="AC10" s="45">
+        <v>165.06</v>
+      </c>
+      <c r="AD10" s="45">
+        <v>145.87</v>
+      </c>
+      <c r="AE10" s="45">
+        <v>132.36000000000001</v>
+      </c>
+      <c r="AF10" s="45">
+        <v>122.33</v>
+      </c>
+      <c r="AG10" s="45">
+        <v>105.38</v>
+      </c>
+      <c r="AH10" s="45">
+        <v>92.6</v>
+      </c>
+      <c r="AI10" s="45">
+        <v>88.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="O11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="P11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="R11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="S11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="T11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="U11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="V11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="W11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="Y11" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="AA11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="AB11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="AC11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="AD11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="AE11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="AF11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="AG11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="AH11" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="AI11" s="46">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="21">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1.4E-3</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I12" s="22">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J12" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="K12" s="22">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="18">
-        <f>N8/N7</f>
-        <v>2.0689655172413794E-3</v>
-      </c>
-      <c r="O9" s="18">
-        <f t="shared" ref="O9:W9" si="0">O8/O7</f>
-        <v>2.7272727272727271E-3</v>
-      </c>
-      <c r="P9" s="18">
+      <c r="N12" s="47">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="O12" s="47">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="P12" s="47">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="Q12" s="47">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="R12" s="47">
+        <v>1.1E-4</v>
+      </c>
+      <c r="S12" s="47">
+        <v>1.1E-4</v>
+      </c>
+      <c r="T12" s="47">
+        <v>1.2E-4</v>
+      </c>
+      <c r="U12" s="47">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="V12" s="47">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="W12" s="47">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="Y12" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="47">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="AA12" s="47">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="AB12" s="47">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="AC12" s="47">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="AD12" s="47">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AE12" s="47">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="AF12" s="47">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="AG12" s="47">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="AH12" s="47">
+        <v>1.1E-4</v>
+      </c>
+      <c r="AI12" s="47">
+        <v>1.1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="23">
+        <f t="shared" ref="B13:K13" si="0">B7/B10</f>
+        <v>5.04820333041192</v>
+      </c>
+      <c r="C13" s="28">
         <f t="shared" si="0"/>
-        <v>3.2967032967032967E-3</v>
-      </c>
-      <c r="Q9" s="18">
+        <v>5</v>
+      </c>
+      <c r="D13" s="27">
         <f t="shared" si="0"/>
-        <v>3.7037037037037034E-3</v>
-      </c>
-      <c r="R9" s="18">
+        <v>4.9823736780258523</v>
+      </c>
+      <c r="E13" s="27">
         <f t="shared" si="0"/>
-        <v>4.2253521126760559E-3</v>
-      </c>
-      <c r="S9" s="18">
+        <v>5</v>
+      </c>
+      <c r="F13" s="27">
         <f t="shared" si="0"/>
-        <v>4.3478260869565218E-3</v>
-      </c>
-      <c r="T9" s="18">
+        <v>4.9855072463768115</v>
+      </c>
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
-        <v>4.8387096774193551E-3</v>
-      </c>
-      <c r="U9" s="18">
+        <v>4.9689440993788816</v>
+      </c>
+      <c r="H13" s="27">
         <f t="shared" si="0"/>
-        <v>5.3571428571428572E-3</v>
-      </c>
-      <c r="V9" s="18">
+        <v>5</v>
+      </c>
+      <c r="I13" s="27">
         <f t="shared" si="0"/>
-        <v>5.8823529411764705E-3</v>
-      </c>
-      <c r="W9" s="18">
+        <v>5.009345794392523</v>
+      </c>
+      <c r="J13" s="27">
         <f t="shared" si="0"/>
-        <v>6.6666666666666662E-3</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9">
-        <f>Z7/Z8</f>
+        <v>5.0299401197604787</v>
+      </c>
+      <c r="K13" s="27">
+        <f t="shared" si="0"/>
+        <v>5.0061957868649314</v>
+      </c>
+      <c r="M13" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="43">
+        <f t="shared" ref="N13:W13" si="1">N7/N10</f>
+        <v>3.0092352391823178</v>
+      </c>
+      <c r="O13" s="48">
+        <f t="shared" si="1"/>
+        <v>3.0056697861875814</v>
+      </c>
+      <c r="P13" s="48">
+        <f t="shared" si="1"/>
+        <v>3.0167412564230069</v>
+      </c>
+      <c r="Q13" s="48">
+        <f t="shared" si="1"/>
+        <v>2.9983342587451416</v>
+      </c>
+      <c r="R13" s="48">
+        <f t="shared" si="1"/>
+        <v>3.0261054874800215</v>
+      </c>
+      <c r="S13" s="48">
+        <f t="shared" si="1"/>
+        <v>3.0249890398947832</v>
+      </c>
+      <c r="T13" s="48">
+        <f t="shared" si="1"/>
+        <v>2.9901133349409212</v>
+      </c>
+      <c r="U13" s="48">
+        <f t="shared" si="1"/>
+        <v>2.9846768820786145</v>
+      </c>
+      <c r="V13" s="48">
+        <f t="shared" si="1"/>
+        <v>3.0298529630179711</v>
+      </c>
+      <c r="W13" s="45">
+        <f t="shared" si="1"/>
+        <v>2.9945100648810516</v>
+      </c>
+      <c r="Y13" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z13" s="43">
+        <f>Z7/Z10</f>
         <v>2.0287868403015765</v>
       </c>
-      <c r="AA9">
-        <f t="shared" ref="AA9:AI9" si="1">AA7/AA8</f>
+      <c r="AA13" s="48">
+        <f>AA7/AA10</f>
         <v>2.0301217247782133</v>
       </c>
-      <c r="AB9">
-        <f t="shared" si="1"/>
+      <c r="AB13" s="48">
+        <f>AB7/AB10</f>
         <v>2.0043092649195771</v>
       </c>
-      <c r="AC9">
-        <f t="shared" si="1"/>
+      <c r="AC13" s="48">
+        <f>AC7/AC10</f>
         <v>2.0356234096692112</v>
       </c>
-      <c r="AD9">
-        <f t="shared" si="1"/>
+      <c r="AD13" s="48">
+        <f>AD7/AD10</f>
         <v>2.0292040858298486</v>
       </c>
-      <c r="AE9">
-        <f t="shared" si="1"/>
+      <c r="AE13" s="48">
+        <f>AE7/AE10</f>
         <v>2.0247809005741915</v>
       </c>
-      <c r="AF9">
-        <f t="shared" si="1"/>
+      <c r="AF13" s="48">
+        <f>AF7/AF10</f>
         <v>2.0273031962723782</v>
       </c>
-      <c r="AG9">
-        <f t="shared" si="1"/>
+      <c r="AG13" s="48">
+        <f>AG7/AG10</f>
         <v>2.0117669386980452</v>
       </c>
-      <c r="AH9">
-        <f t="shared" si="1"/>
+      <c r="AH13" s="48">
+        <f>AH7/AH10</f>
         <v>2.0302375809935205</v>
       </c>
-      <c r="AI9">
-        <f t="shared" si="1"/>
+      <c r="AI13" s="48">
+        <f>AI7/AI10</f>
         <v>2.0401224073444406</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="19">
-        <v>114.1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>97.6</v>
-      </c>
-      <c r="D10" s="9">
-        <v>85.1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="F10" s="9">
-        <v>69</v>
-      </c>
-      <c r="G10" s="9">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="H10" s="9">
-        <v>60</v>
-      </c>
-      <c r="I10" s="9">
-        <v>53.5</v>
-      </c>
-      <c r="J10" s="9">
-        <v>50.1</v>
-      </c>
-      <c r="K10" s="9">
-        <v>80.7</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="21">
-        <v>192.74</v>
-      </c>
-      <c r="O10" s="11">
-        <v>146.38999999999999</v>
-      </c>
-      <c r="P10" s="11">
-        <v>120.66</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>108.06</v>
-      </c>
-      <c r="R10" s="11">
-        <v>93.85</v>
-      </c>
-      <c r="S10" s="11">
-        <v>91.24</v>
-      </c>
-      <c r="T10" s="11">
-        <v>82.94</v>
-      </c>
-      <c r="U10" s="11">
-        <v>75.05</v>
-      </c>
-      <c r="V10" s="11">
-        <v>67.33</v>
-      </c>
-      <c r="W10" s="11">
-        <v>60.11</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" ref="Z10" si="2">Z9*(1+Z9/$N3)</f>
-        <v>2.0370187923883383</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" ref="AA10" si="3">AA9*(1+AA9/$N3)</f>
-        <v>2.0383645132130463</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" ref="AB10" si="4">AB9*(1+AB9/$N3)</f>
-        <v>2.0123437761784619</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" ref="AC10" si="5">AC9*(1+AC9/$N3)</f>
-        <v>2.0439109350011977</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" ref="AD10" si="6">AD9*(1+AD9/$N3)</f>
-        <v>2.0374394242737455</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" ref="AE10" si="7">AE9*(1+AE9/$N3)</f>
-        <v>2.0329803759648515</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" ref="AF10" si="8">AF9*(1+AF9/$N3)</f>
-        <v>2.0355231127716107</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" ref="AG10" si="9">AG9*(1+AG9/$N3)</f>
-        <v>2.0198613511293226</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" ref="AH10" si="10">AH9*(1+AH9/$N3)</f>
-        <v>2.0384813102640775</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" ref="AI10" si="11">AI9*(1+AI9/$N3)</f>
-        <v>2.0484466062183384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="Y11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" ref="C11:AI11" si="12">Z7/Z10</f>
-        <v>290.62078475275098</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="12"/>
-        <v>241.36997912334485</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="12"/>
-        <v>198.77319409093178</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="12"/>
-        <v>164.39072478459201</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="12"/>
-        <v>145.28039286640904</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="12"/>
-        <v>131.82616181073925</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="12"/>
-        <v>121.8360029635419</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="12"/>
-        <v>104.95769914180936</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="12"/>
-        <v>92.225520564446725</v>
-      </c>
-      <c r="AI11">
-        <f t="shared" si="12"/>
-        <v>87.871462919065351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="18">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1.4E-3</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1.9E-3</v>
-      </c>
-      <c r="J12" s="8">
-        <v>2E-3</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="20">
-        <f>B7/B10</f>
-        <v>5.04820333041192</v>
-      </c>
-      <c r="C13" s="10">
-        <f>C7/C10</f>
-        <v>5</v>
-      </c>
-      <c r="D13" s="11">
-        <f>D7/D10</f>
-        <v>4.9823736780258523</v>
-      </c>
-      <c r="E13" s="11">
-        <f>E7/E10</f>
-        <v>5</v>
-      </c>
-      <c r="F13" s="11">
-        <f>F7/F10</f>
-        <v>4.9855072463768115</v>
-      </c>
-      <c r="G13" s="11">
-        <f>G7/G10</f>
-        <v>4.9689440993788816</v>
-      </c>
-      <c r="H13" s="11">
-        <f>H7/H10</f>
-        <v>5</v>
-      </c>
-      <c r="I13" s="11">
-        <f>I7/I10</f>
-        <v>5.009345794392523</v>
-      </c>
-      <c r="J13" s="11">
-        <f>J7/J10</f>
-        <v>5.0299401197604787</v>
-      </c>
-      <c r="K13" s="11">
-        <f>K7/K10</f>
-        <v>5.0061957868649314</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="18">
-        <f>N7/N10</f>
-        <v>3.0092352391823178</v>
-      </c>
-      <c r="O13" s="8">
-        <f>O7/O10</f>
-        <v>3.0056697861875814</v>
-      </c>
-      <c r="P13" s="8">
-        <f>P7/P10</f>
-        <v>3.0167412564230069</v>
-      </c>
-      <c r="Q13" s="8">
-        <f>Q7/Q10</f>
-        <v>2.9983342587451416</v>
-      </c>
-      <c r="R13" s="8">
-        <f>R7/R10</f>
-        <v>3.0261054874800215</v>
-      </c>
-      <c r="S13" s="8">
-        <f>S7/S10</f>
-        <v>3.0249890398947832</v>
-      </c>
-      <c r="T13" s="8">
-        <f>T7/T10</f>
-        <v>2.9901133349409212</v>
-      </c>
-      <c r="U13" s="8">
-        <f>U7/U10</f>
-        <v>2.9846768820786145</v>
-      </c>
-      <c r="V13" s="8">
-        <f>V7/V10</f>
-        <v>3.0298529630179711</v>
-      </c>
-      <c r="W13" s="8">
-        <f>W7/W10</f>
-        <v>2.9945100648810516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="18">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="21">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="22">
         <f>C13*C15</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="22">
         <v>0.02</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="22">
         <v>0.02</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="22">
         <v>0.02</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="22">
         <v>0.03</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="22">
         <v>0.03</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="22">
         <v>0.03</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="22">
         <v>0.04</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="22">
         <v>0.02</v>
       </c>
-      <c r="M14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
+      <c r="M14" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="43">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O14" s="43">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P14" s="43">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Q14" s="43">
+        <v>1.2E-2</v>
+      </c>
+      <c r="R14" s="43">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S14" s="43">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T14" s="43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U14" s="43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V14" s="43">
+        <v>1.9E-2</v>
+      </c>
+      <c r="W14" s="44">
+        <v>0.02</v>
+      </c>
+      <c r="Y14" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14" s="43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AA14" s="43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB14" s="43">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AC14" s="43">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AD14" s="43">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AE14" s="43">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AF14" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="AG14" s="43">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AH14" s="43">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI14" s="43">
+        <v>1.4999999999999999E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="18">
-        <f>B12+B9</f>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21">
+        <f t="shared" ref="B15:K15" si="2">B12+B9</f>
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="C15" s="8">
-        <f>C12+C9</f>
+      <c r="C15" s="22">
+        <f t="shared" si="2"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D15" s="8">
-        <f>D12+D9</f>
+      <c r="D15" s="22">
+        <f t="shared" si="2"/>
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="E15" s="8">
-        <f>E12+E9</f>
+      <c r="E15" s="22">
+        <f t="shared" si="2"/>
         <v>4.3E-3</v>
       </c>
-      <c r="F15" s="8">
-        <f>F12+F9</f>
+      <c r="F15" s="22">
+        <f t="shared" si="2"/>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="G15" s="8">
-        <f>G12+G9</f>
+      <c r="G15" s="22">
+        <f t="shared" si="2"/>
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="H15" s="8">
-        <f>H12+H9</f>
+      <c r="H15" s="22">
+        <f t="shared" si="2"/>
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="I15" s="8">
-        <f>I12+I9</f>
+      <c r="I15" s="22">
+        <f t="shared" si="2"/>
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="J15" s="8">
-        <f>J12+J9</f>
+      <c r="J15" s="22">
+        <f t="shared" si="2"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K15" s="8">
-        <f>K12+K9</f>
+      <c r="K15" s="22">
+        <f t="shared" si="2"/>
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M15" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
+      <c r="M15" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="47">
+        <f>N12+N9</f>
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="O15" s="47">
+        <f t="shared" ref="O15:W15" si="3">O12+O9</f>
+        <v>3.0700000000000002E-3</v>
+      </c>
+      <c r="P15" s="47">
+        <f t="shared" si="3"/>
+        <v>3.0800000000000003E-3</v>
+      </c>
+      <c r="Q15" s="47">
+        <f t="shared" si="3"/>
+        <v>4.0899999999999999E-3</v>
+      </c>
+      <c r="R15" s="47">
+        <f t="shared" si="3"/>
+        <v>4.1099999999999999E-3</v>
+      </c>
+      <c r="S15" s="47">
+        <f t="shared" si="3"/>
+        <v>4.1099999999999999E-3</v>
+      </c>
+      <c r="T15" s="47">
+        <f t="shared" si="3"/>
+        <v>5.1200000000000004E-3</v>
+      </c>
+      <c r="U15" s="47">
+        <f t="shared" si="3"/>
+        <v>5.13E-3</v>
+      </c>
+      <c r="V15" s="47">
+        <f t="shared" si="3"/>
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="W15" s="47">
+        <f>W12+W9</f>
+        <v>7.1700000000000002E-3</v>
+      </c>
+      <c r="Y15" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z15" s="47">
+        <f>Z12+Z9</f>
+        <v>2.0300000000000001E-3</v>
+      </c>
+      <c r="AA15" s="47">
+        <f t="shared" ref="AA15:AI15" si="4">AA12+AA9</f>
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="AB15" s="47">
+        <f t="shared" si="4"/>
+        <v>3.0500000000000002E-3</v>
+      </c>
+      <c r="AC15" s="47">
+        <f t="shared" si="4"/>
+        <v>4.0600000000000002E-3</v>
+      </c>
+      <c r="AD15" s="47">
+        <f t="shared" si="4"/>
+        <v>4.0699999999999998E-3</v>
+      </c>
+      <c r="AE15" s="47">
+        <f t="shared" si="4"/>
+        <v>4.0800000000000003E-3</v>
+      </c>
+      <c r="AF15" s="47">
+        <f t="shared" si="4"/>
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="AG15" s="47">
+        <f t="shared" si="4"/>
+        <v>6.0899999999999999E-3</v>
+      </c>
+      <c r="AH15" s="47">
+        <f t="shared" si="4"/>
+        <v>6.11E-3</v>
+      </c>
+      <c r="AI15" s="47">
+        <f t="shared" si="4"/>
+        <v>7.11E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="21">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="26">
         <f>B13*(1+B13/$N3)</f>
         <v>5.0991720441422839</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="22">
         <f>C13*(1+C13/$N3)</f>
         <v>5.05</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="27">
         <f>D13*(1+D13/$N3)</f>
         <v>5.0320217729608228</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="22">
         <f>E13*(1+E13/$N3)</f>
         <v>5.05</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="27">
         <f>F13*(1+F13/$N3)</f>
         <v>5.0352178113841628</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="27">
         <f>G13*(1+G13/$N3)</f>
         <v>5.0183249103043863</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="22">
         <f>H13*(1+H13/$N3)</f>
         <v>5.05</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="27">
         <f>I13*(1+I13/$N3)</f>
         <v>5.0595328849681191</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="27">
         <f>J13*(1+J13/$N3)</f>
         <v>5.0805407149772304</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="27">
         <f>K13*(1+K13/$N3)</f>
         <v>5.0563197793777794</v>
       </c>
-      <c r="M16" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="18">
+      <c r="M16" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="43">
         <f>N13*(1+N13/$N3)</f>
         <v>3.0273462326317908</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="45">
         <f>O13*(1+O13/$N3)</f>
         <v>3.0237378879147832</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="45">
         <f>P13*(1+P13/$N3)</f>
         <v>3.0349427120394163</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="45">
         <f>Q13*(1+Q13/$N3)</f>
         <v>3.0163142753994716</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="45">
         <f>R13*(1+R13/$N3)</f>
         <v>3.0444201163227351</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="45">
         <f>S13*(1+S13/$N3)</f>
         <v>3.0432901572777502</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="45">
         <f>T13*(1+T13/$N3)</f>
         <v>3.0079948904525042</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="45">
         <f>U13*(1+U13/$N3)</f>
         <v>3.0024934742594436</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="45">
         <f>V13*(1+V13/$N3)</f>
         <v>3.0482129809729885</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="45">
         <f>W13*(1+W13/$N3)</f>
         <v>3.0124442459383993</v>
       </c>
+      <c r="Y16" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z16" s="43">
+        <f>Z13*(1+Z13/$N3)</f>
+        <v>2.0370187923883383</v>
+      </c>
+      <c r="AA16" s="48">
+        <f>AA13*(1+AA13/$N3)</f>
+        <v>2.0383645132130463</v>
+      </c>
+      <c r="AB16" s="48">
+        <f>AB13*(1+AB13/$N3)</f>
+        <v>2.0123437761784619</v>
+      </c>
+      <c r="AC16" s="48">
+        <f>AC13*(1+AC13/$N3)</f>
+        <v>2.0439109350011977</v>
+      </c>
+      <c r="AD16" s="48">
+        <f>AD13*(1+AD13/$N3)</f>
+        <v>2.0374394242737455</v>
+      </c>
+      <c r="AE16" s="48">
+        <f>AE13*(1+AE13/$N3)</f>
+        <v>2.0329803759648515</v>
+      </c>
+      <c r="AF16" s="48">
+        <f>AF13*(1+AF13/$N3)</f>
+        <v>2.0355231127716107</v>
+      </c>
+      <c r="AG16" s="48">
+        <f>AG13*(1+AG13/$N3)</f>
+        <v>2.0198613511293226</v>
+      </c>
+      <c r="AH16" s="48">
+        <f>AH13*(1+AH13/$N3)</f>
+        <v>2.0384813102640775</v>
+      </c>
+      <c r="AI16" s="48">
+        <f>AI13*(1+AI13/$N3)</f>
+        <v>2.0484466062183384</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="18">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="21">
         <v>0.05</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="22">
         <v>0.05</v>
       </c>
-      <c r="D17" s="8">
-        <f>3*D14</f>
+      <c r="D17" s="22">
+        <f t="shared" ref="D17:K17" si="5">3*D14</f>
         <v>0.06</v>
       </c>
-      <c r="E17" s="8">
-        <f>3*E14</f>
+      <c r="E17" s="22">
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
-      <c r="F17" s="8">
-        <f>3*F14</f>
+      <c r="F17" s="22">
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
-      <c r="G17" s="8">
-        <f>3*G14</f>
+      <c r="G17" s="22">
+        <f t="shared" si="5"/>
         <v>0.09</v>
       </c>
-      <c r="H17" s="8">
-        <f>3*H14</f>
+      <c r="H17" s="22">
+        <f t="shared" si="5"/>
         <v>0.09</v>
       </c>
-      <c r="I17" s="8">
-        <f>3*I14</f>
+      <c r="I17" s="22">
+        <f t="shared" si="5"/>
         <v>0.09</v>
       </c>
-      <c r="J17" s="8">
-        <f>3*J14</f>
+      <c r="J17" s="22">
+        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
-      <c r="K17" s="8">
-        <f>3*K14</f>
+      <c r="K17" s="22">
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
-      <c r="M17" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
+      <c r="M17" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="43">
+        <f>N14*3</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="O17" s="46">
+        <v>0.03</v>
+      </c>
+      <c r="P17" s="46">
+        <v>0.03</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="R17" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S17" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="T17" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="U17" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="V17" s="46">
+        <v>0.06</v>
+      </c>
+      <c r="W17" s="46">
+        <f>W14*3</f>
+        <v>0.06</v>
+      </c>
+      <c r="Y17" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z17" s="46">
+        <f>Z14*3</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="AA17" s="46">
+        <f t="shared" ref="AA17:AI17" si="6">AA14*3</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="AB17" s="46">
+        <f t="shared" si="6"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="AC17" s="46">
+        <f t="shared" si="6"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="AD17" s="46">
+        <f t="shared" si="6"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="AE17" s="46">
+        <f t="shared" si="6"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="AF17" s="46">
+        <f t="shared" si="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="AG17" s="46">
+        <f t="shared" si="6"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="AH17" s="46">
+        <f t="shared" si="6"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="AI17" s="46">
+        <f t="shared" si="6"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="21">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="26">
         <v>0.01</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="27">
         <v>0.01</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="22">
         <v>1.2E-2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="22">
         <v>1.2E-2</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="22">
         <v>1.2E-2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="22">
         <v>0.02</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="22">
         <v>0.02</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="22">
         <v>0.02</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="22">
         <v>0.02</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="22">
         <v>1.2E-2</v>
       </c>
-      <c r="M18" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
+      <c r="M18" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="43">
+        <f>N17/N16</f>
+        <v>5.9458015756433304E-3</v>
+      </c>
+      <c r="O18" s="44">
+        <f t="shared" ref="O18:W18" si="7">O17/O16</f>
+        <v>9.9214948887942356E-3</v>
+      </c>
+      <c r="P18" s="44">
+        <f t="shared" si="7"/>
+        <v>9.8848653323807371E-3</v>
+      </c>
+      <c r="Q18" s="43">
+        <f t="shared" si="7"/>
+        <v>1.3261217614567873E-2</v>
+      </c>
+      <c r="R18" s="43">
+        <f t="shared" si="7"/>
+        <v>1.313879112332066E-2</v>
+      </c>
+      <c r="S18" s="43">
+        <f t="shared" si="7"/>
+        <v>1.3143669493473587E-2</v>
+      </c>
+      <c r="T18" s="44">
+        <f t="shared" si="7"/>
+        <v>1.6622368661164285E-2</v>
+      </c>
+      <c r="U18" s="44">
+        <f t="shared" si="7"/>
+        <v>1.6652825536059609E-2</v>
+      </c>
+      <c r="V18" s="44">
+        <f t="shared" si="7"/>
+        <v>1.9683663961318088E-2</v>
+      </c>
+      <c r="W18" s="44">
+        <f>W17/W16</f>
+        <v>1.9917381070503278E-2</v>
+      </c>
+      <c r="Y18" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z18" s="43">
+        <f>Z17/Z16</f>
+        <v>5.8909618530963038E-3</v>
+      </c>
+      <c r="AA18" s="43">
+        <f t="shared" ref="AA18:AI18" si="8">AA17/AA16</f>
+        <v>5.8870726615449969E-3</v>
+      </c>
+      <c r="AB18" s="43">
+        <f t="shared" si="8"/>
+        <v>8.9447937340919308E-3</v>
+      </c>
+      <c r="AC18" s="43">
+        <f t="shared" si="8"/>
+        <v>1.1742194627470857E-2</v>
+      </c>
+      <c r="AD18" s="43">
+        <f t="shared" si="8"/>
+        <v>1.1779491313492626E-2</v>
+      </c>
+      <c r="AE18" s="43">
+        <f t="shared" si="8"/>
+        <v>1.1805327923349783E-2</v>
+      </c>
+      <c r="AF18" s="43">
+        <f t="shared" si="8"/>
+        <v>1.4738226164944584E-2</v>
+      </c>
+      <c r="AG18" s="43">
+        <f t="shared" si="8"/>
+        <v>1.7823005514646873E-2</v>
+      </c>
+      <c r="AH18" s="43">
+        <f t="shared" si="8"/>
+        <v>1.7660206065532355E-2</v>
+      </c>
+      <c r="AI18" s="43">
+        <f t="shared" si="8"/>
+        <v>2.1967865729766337E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="19">
-        <f>B7/B16</f>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="24">
+        <f t="shared" ref="B19:K19" si="9">B7/B16</f>
         <v>112.95951480234615</v>
       </c>
-      <c r="C19" s="9">
-        <f>C7/C16</f>
+      <c r="C19" s="25">
+        <f t="shared" si="9"/>
         <v>96.633663366336634</v>
       </c>
-      <c r="D19" s="9">
-        <f>D7/D16</f>
+      <c r="D19" s="25">
+        <f t="shared" si="9"/>
         <v>84.260366733373644</v>
       </c>
-      <c r="E19" s="9">
-        <f>E7/E16</f>
+      <c r="E19" s="25">
+        <f t="shared" si="9"/>
         <v>77.623762376237622</v>
       </c>
-      <c r="F19" s="9">
-        <f>F7/F16</f>
+      <c r="F19" s="25">
+        <f t="shared" si="9"/>
         <v>68.318792331534837</v>
       </c>
-      <c r="G19" s="9">
-        <f>G7/G16</f>
+      <c r="G19" s="25">
+        <f t="shared" si="9"/>
         <v>63.766297662976633</v>
       </c>
-      <c r="H19" s="9">
-        <f>H7/H16</f>
+      <c r="H19" s="25">
+        <f t="shared" si="9"/>
         <v>59.405940594059409</v>
       </c>
-      <c r="I19" s="9">
-        <f>I7/I16</f>
+      <c r="I19" s="25">
+        <f t="shared" si="9"/>
         <v>52.969316751795105</v>
       </c>
-      <c r="J19" s="9">
-        <f>J7/J16</f>
+      <c r="J19" s="25">
+        <f t="shared" si="9"/>
         <v>49.601019682238565</v>
       </c>
-      <c r="K19" s="9">
-        <f>K7/K16</f>
+      <c r="K19" s="25">
+        <f t="shared" si="9"/>
         <v>79.900009814987499</v>
       </c>
-      <c r="M19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="18">
-        <f>N7/N16</f>
+      <c r="M19" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="49">
+        <f t="shared" ref="N19:W19" si="10">N7/N16</f>
         <v>191.58693965961839</v>
       </c>
-      <c r="O19" s="8">
-        <f>O7/O16</f>
+      <c r="O19" s="50">
+        <f t="shared" si="10"/>
         <v>145.51525836898213</v>
       </c>
-      <c r="P19" s="8">
-        <f>P7/P16</f>
+      <c r="P19" s="50">
+        <f t="shared" si="10"/>
         <v>119.93636603288627</v>
       </c>
-      <c r="Q19" s="8">
-        <f>Q7/Q16</f>
+      <c r="Q19" s="50">
+        <f t="shared" si="10"/>
         <v>107.41586267799977</v>
       </c>
-      <c r="R19" s="8">
-        <f>R7/R16</f>
+      <c r="R19" s="50">
+        <f t="shared" si="10"/>
         <v>93.28541697557668</v>
       </c>
-      <c r="S19" s="8">
-        <f>S7/S16</f>
+      <c r="S19" s="50">
+        <f t="shared" si="10"/>
         <v>90.691319504967751</v>
       </c>
-      <c r="T19" s="8">
-        <f>T7/T16</f>
+      <c r="T19" s="50">
+        <f t="shared" si="10"/>
         <v>82.446948559374846</v>
       </c>
-      <c r="U19" s="8">
-        <f>U7/U16</f>
+      <c r="U19" s="50">
+        <f t="shared" si="10"/>
         <v>74.604658401547056</v>
       </c>
-      <c r="V19" s="8">
-        <f>V7/V16</f>
+      <c r="V19" s="50">
+        <f t="shared" si="10"/>
         <v>66.924457468481506</v>
       </c>
-      <c r="W19" s="8">
-        <f>W7/W16</f>
+      <c r="W19" s="50">
+        <f t="shared" si="10"/>
         <v>59.752143211509839</v>
       </c>
+      <c r="Y19" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z19" s="49">
+        <f>Z7/Z16</f>
+        <v>290.62078475275098</v>
+      </c>
+      <c r="AA19" s="50">
+        <f>AA7/AA16</f>
+        <v>241.36997912334485</v>
+      </c>
+      <c r="AB19" s="50">
+        <f>AB7/AB16</f>
+        <v>198.77319409093178</v>
+      </c>
+      <c r="AC19" s="50">
+        <f>AC7/AC16</f>
+        <v>164.39072478459201</v>
+      </c>
+      <c r="AD19" s="50">
+        <f>AD7/AD16</f>
+        <v>145.28039286640904</v>
+      </c>
+      <c r="AE19" s="50">
+        <f>AE7/AE16</f>
+        <v>131.82616181073925</v>
+      </c>
+      <c r="AF19" s="50">
+        <f>AF7/AF16</f>
+        <v>121.8360029635419</v>
+      </c>
+      <c r="AG19" s="50">
+        <f>AG7/AG16</f>
+        <v>104.95769914180936</v>
+      </c>
+      <c r="AH19" s="50">
+        <f>AH7/AH16</f>
+        <v>92.225520564446725</v>
+      </c>
+      <c r="AI19" s="50">
+        <f>AI7/AI16</f>
+        <v>87.871462919065351</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="19">
-        <f>B19*B21</f>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="24">
+        <f t="shared" ref="B20:K20" si="11">B19*B21</f>
         <v>1.3555141776281538</v>
       </c>
-      <c r="C20" s="9">
-        <f>C19*C21</f>
+      <c r="C20" s="25">
+        <f t="shared" si="11"/>
         <v>1.1596039603960397</v>
       </c>
-      <c r="D20" s="9">
-        <f>D19*D21</f>
+      <c r="D20" s="25">
+        <f t="shared" si="11"/>
         <v>1.2639055010006046</v>
       </c>
-      <c r="E20" s="9">
-        <f>E19*E21</f>
+      <c r="E20" s="25">
+        <f t="shared" si="11"/>
         <v>1.1643564356435643</v>
       </c>
-      <c r="F20" s="9">
-        <f>F19*F21</f>
+      <c r="F20" s="25">
+        <f t="shared" si="11"/>
         <v>1.0247818849730226</v>
       </c>
-      <c r="G20" s="9">
-        <f>G19*G21</f>
+      <c r="G20" s="25">
+        <f t="shared" si="11"/>
         <v>1.5303911439114393</v>
       </c>
-      <c r="H20" s="9">
-        <f>H19*H21</f>
+      <c r="H20" s="25">
+        <f t="shared" si="11"/>
         <v>1.4257425742574259</v>
       </c>
-      <c r="I20" s="9">
-        <f>I19*I21</f>
+      <c r="I20" s="25">
+        <f t="shared" si="11"/>
         <v>1.2712636020430825</v>
       </c>
-      <c r="J20" s="9">
-        <f>J19*J21</f>
+      <c r="J20" s="25">
+        <f t="shared" si="11"/>
         <v>1.2400254920559641</v>
       </c>
-      <c r="K20" s="9">
-        <f>K19*K21</f>
+      <c r="K20" s="25">
+        <f t="shared" si="11"/>
         <v>1.1985001472248125</v>
       </c>
-      <c r="M20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
+      <c r="M20" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="49">
+        <f>N19*N21</f>
+        <v>1.5223118070200796</v>
+      </c>
+      <c r="O20" s="49">
+        <f t="shared" ref="O20:W20" si="12">O19*O21</f>
+        <v>1.880274667256375</v>
+      </c>
+      <c r="P20" s="49">
+        <f t="shared" si="12"/>
+        <v>1.5453639247888629</v>
+      </c>
+      <c r="Q20" s="49">
+        <f t="shared" si="12"/>
+        <v>1.8541285809414931</v>
+      </c>
+      <c r="R20" s="49">
+        <f t="shared" si="12"/>
+        <v>1.5987992763962799</v>
+      </c>
+      <c r="S20" s="49">
+        <f t="shared" si="12"/>
+        <v>1.5547820075201819</v>
+      </c>
+      <c r="T20" s="49">
+        <f t="shared" si="12"/>
+        <v>1.7826983167388506</v>
+      </c>
+      <c r="U20" s="49">
+        <f t="shared" si="12"/>
+        <v>1.6154016525460222</v>
+      </c>
+      <c r="V20" s="49">
+        <f t="shared" si="12"/>
+        <v>1.7188652764140038</v>
+      </c>
+      <c r="W20" s="49">
+        <f t="shared" si="12"/>
+        <v>1.6083712086034958</v>
+      </c>
+      <c r="Y20" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z20" s="49">
+        <f>Z19*Z21</f>
+        <v>2.2932775262008698</v>
+      </c>
+      <c r="AA20" s="49">
+        <f t="shared" ref="AA20:AI20" si="13">AA19*AA21</f>
+        <v>1.90370256366142</v>
+      </c>
+      <c r="AB20" s="49">
+        <f t="shared" si="13"/>
+        <v>2.3743048032828011</v>
+      </c>
+      <c r="AC20" s="49">
+        <f t="shared" si="13"/>
+        <v>2.5878707845100446</v>
+      </c>
+      <c r="AD20" s="49">
+        <f t="shared" si="13"/>
+        <v>2.2924506972562977</v>
+      </c>
+      <c r="AE20" s="49">
+        <f t="shared" si="13"/>
+        <v>2.083555716295304</v>
+      </c>
+      <c r="AF20" s="49">
+        <f t="shared" si="13"/>
+        <v>2.4048265815272485</v>
+      </c>
+      <c r="AG20" s="49">
+        <f t="shared" si="13"/>
+        <v>2.5004078454599719</v>
+      </c>
+      <c r="AH20" s="49">
+        <f t="shared" si="13"/>
+        <v>2.1820748210558012</v>
+      </c>
+      <c r="AI20" s="49">
+        <f t="shared" si="13"/>
+        <v>2.5454487393176266</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="20">
+    <row r="21" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="23">
         <f>B18+B9</f>
         <v>1.2E-2</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="28">
         <f>C18+C9</f>
         <v>1.2E-2</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="28">
         <f>D18+D9</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="28">
         <f>E18+E9</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="28">
         <f>F18+F9</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="27">
         <f>G18+G9</f>
         <v>2.4E-2</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="27">
         <f>H18+H9</f>
         <v>2.4E-2</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="27">
         <f>I18+I9</f>
         <v>2.4E-2</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="27">
         <f>J18+J9</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="28">
         <f>K18+K9</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M21" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
+      <c r="M21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="43">
+        <f>N18+N9</f>
+        <v>7.9458015756433305E-3</v>
+      </c>
+      <c r="O21" s="43">
+        <f t="shared" ref="O21:W21" si="14">O18+O9</f>
+        <v>1.2921494888794235E-2</v>
+      </c>
+      <c r="P21" s="43">
+        <f t="shared" si="14"/>
+        <v>1.2884865332380736E-2</v>
+      </c>
+      <c r="Q21" s="43">
+        <f t="shared" si="14"/>
+        <v>1.7261217614567871E-2</v>
+      </c>
+      <c r="R21" s="43">
+        <f t="shared" si="14"/>
+        <v>1.713879112332066E-2</v>
+      </c>
+      <c r="S21" s="43">
+        <f t="shared" si="14"/>
+        <v>1.7143669493473589E-2</v>
+      </c>
+      <c r="T21" s="44">
+        <f t="shared" si="14"/>
+        <v>2.1622368661164286E-2</v>
+      </c>
+      <c r="U21" s="44">
+        <f t="shared" si="14"/>
+        <v>2.165282553605961E-2</v>
+      </c>
+      <c r="V21" s="44">
+        <f t="shared" si="14"/>
+        <v>2.568366396131809E-2</v>
+      </c>
+      <c r="W21" s="44">
+        <f t="shared" si="14"/>
+        <v>2.6917381070503277E-2</v>
+      </c>
+      <c r="Y21" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z21" s="43">
+        <f>Z18+Z9</f>
+        <v>7.8909618530963038E-3</v>
+      </c>
+      <c r="AA21" s="43">
+        <f t="shared" ref="AA21:AI21" si="15">AA18+AA9</f>
+        <v>7.8870726615449978E-3</v>
+      </c>
+      <c r="AB21" s="43">
+        <f t="shared" si="15"/>
+        <v>1.1944793734091932E-2</v>
+      </c>
+      <c r="AC21" s="43">
+        <f t="shared" si="15"/>
+        <v>1.5742194627470858E-2</v>
+      </c>
+      <c r="AD21" s="43">
+        <f t="shared" si="15"/>
+        <v>1.5779491313492627E-2</v>
+      </c>
+      <c r="AE21" s="43">
+        <f t="shared" si="15"/>
+        <v>1.5805327923349783E-2</v>
+      </c>
+      <c r="AF21" s="44">
+        <f t="shared" si="15"/>
+        <v>1.9738226164944583E-2</v>
+      </c>
+      <c r="AG21" s="44">
+        <f t="shared" si="15"/>
+        <v>2.3823005514646875E-2</v>
+      </c>
+      <c r="AH21" s="44">
+        <f t="shared" si="15"/>
+        <v>2.3660206065532353E-2</v>
+      </c>
+      <c r="AI21" s="44">
+        <f t="shared" si="15"/>
+        <v>2.8967865729766337E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="N5:W5"/>
     <mergeCell ref="M5:M6"/>
+    <mergeCell ref="Z5:AI5"/>
+    <mergeCell ref="Y5:Y6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2418,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,314 +3251,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1">
         <v>1</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="1">
         <v>2</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="1">
         <v>3</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="1">
         <v>4</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="1">
         <v>5</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="1">
         <v>6</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="1">
         <v>7</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="1">
         <v>8</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="1">
         <v>9</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="1">
         <v>10</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="3">
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="1">
         <v>1</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="1">
         <v>2</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="1">
         <v>3</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="1">
         <v>4</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="1">
         <v>5</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="1">
         <v>6</v>
       </c>
-      <c r="AG1" s="3">
+      <c r="AG1" s="1">
         <v>7</v>
       </c>
-      <c r="AH1" s="3">
+      <c r="AH1" s="1">
         <v>8</v>
       </c>
-      <c r="AI1" s="3">
+      <c r="AI1" s="1">
         <v>9</v>
       </c>
-      <c r="AJ1" s="3">
+      <c r="AJ1" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>576</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>488</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>424</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>392</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>344</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>320</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>300</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>268</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>252</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>404</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="L2" s="1"/>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="2">
         <v>580</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="2">
         <v>440</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="2">
         <v>364</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="2">
         <v>324</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="2">
         <v>284</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="2">
         <v>276</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="2">
         <v>248</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="2">
         <v>224</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="2">
         <v>204</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="2">
         <v>180</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="5">
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="3">
         <v>592</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="3">
         <v>492</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2" s="3">
         <v>400</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2" s="3">
         <v>336</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2" s="3">
         <v>296</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF2" s="3">
         <v>268</v>
       </c>
-      <c r="AG2" s="5">
+      <c r="AG2" s="3">
         <v>248</v>
       </c>
-      <c r="AH2" s="5">
+      <c r="AH2" s="3">
         <v>212</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AI2" s="3">
         <v>188</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AJ2" s="3">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
         <v>114.1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>97.6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>85.1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>78.400000000000006</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>69</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>64.400000000000006</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>60</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>53.5</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <v>50.1</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <v>80.7</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="L3" s="1"/>
+      <c r="M3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
         <v>192.74</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>146.38999999999999</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="3">
         <v>120.66</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="3">
         <v>108.06</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="3">
         <v>93.85</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="3">
         <v>91.24</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="3">
         <v>82.94</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="3">
         <v>75.05</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="3">
         <v>67.33</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="3">
         <v>60.11</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA3" s="5">
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="3">
         <v>291.8</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="3">
         <v>242.35</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3" s="3">
         <v>199.57</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" s="3">
         <v>165.06</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AE3" s="3">
         <v>145.87</v>
       </c>
-      <c r="AF3" s="5">
+      <c r="AF3" s="3">
         <v>132.36000000000001</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AG3" s="3">
         <v>122.33</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AH3" s="3">
         <v>105.38</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="3">
         <v>92.6</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AJ3" s="3">
         <v>88.23</v>
       </c>
     </row>

--- a/Лабы/1.1.1/1.1.1.xlsx
+++ b/Лабы/1.1.1/1.1.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_9309BEAE424713B7DE60702DAAF96B62FCBE6535" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5ABF6CD5-BBE2-4682-A912-8DB434DECDF6}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_9309BEAE424713B7DE60702DAAF96B62FCBE6535" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85A66BF7-90BA-45BB-9E67-EDFE2B53F01A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>Штанген</t>
   </si>
@@ -314,6 +314,45 @@
       <t>, о.е.</t>
     </r>
   </si>
+  <si>
+    <t>R,  Ом</t>
+  </si>
+  <si>
+    <t>ΔR, Ом</t>
+  </si>
+  <si>
+    <t>δR, о.е.</t>
+  </si>
+  <si>
+    <t>d, мм</t>
+  </si>
+  <si>
+    <t>Δd, мм</t>
+  </si>
+  <si>
+    <t>δd, о.е.</t>
+  </si>
+  <si>
+    <t>l, мм</t>
+  </si>
+  <si>
+    <t>Δl, мм</t>
+  </si>
+  <si>
+    <t>δl, о.е.</t>
+  </si>
+  <si>
+    <t>ρ, Ом/мм</t>
+  </si>
+  <si>
+    <t>Δρ, Ом/мм</t>
+  </si>
+  <si>
+    <t>δρ, о.е.</t>
+  </si>
+  <si>
+    <t>Номер эксперимента</t>
+  </si>
 </sst>
 </file>
 
@@ -322,9 +361,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +416,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -672,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,21 +737,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -749,21 +780,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,7 +812,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,28 +825,81 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1113,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AU21"/>
+  <dimension ref="A2:AY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="88" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="88" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1136,11 +1205,15 @@
     <col min="36" max="36" width="9.140625" style="6"/>
     <col min="37" max="37" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="47" width="4.42578125" style="6" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="6"/>
+    <col min="41" max="42" width="4.42578125" style="6" customWidth="1"/>
+    <col min="43" max="43" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="4.42578125" style="6" customWidth="1"/>
+    <col min="48" max="48" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -1172,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1286,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1278,46 +1351,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="31" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="33"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="53" t="s">
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="52"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="55"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="57"/>
       <c r="AK5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1351,99 +1424,105 @@
       <c r="AU5" s="7">
         <v>0.35</v>
       </c>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX5" s="61"/>
+      <c r="AY5" s="62"/>
     </row>
-    <row r="6" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13">
+    <row r="6" spans="1:51" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="49"/>
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="9">
         <v>3</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="9">
         <v>4</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="9">
         <v>5</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="9">
         <v>6</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="9">
         <v>7</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="9">
         <v>8</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="9">
         <v>9</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="10">
         <v>10</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="35">
+      <c r="M6" s="54"/>
+      <c r="N6" s="25">
         <v>1</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="26">
         <v>2</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="26">
         <v>3</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="26">
         <v>4</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="26">
         <v>5</v>
       </c>
-      <c r="S6" s="36">
+      <c r="S6" s="26">
         <v>6</v>
       </c>
-      <c r="T6" s="36">
+      <c r="T6" s="26">
         <v>7</v>
       </c>
-      <c r="U6" s="36">
+      <c r="U6" s="26">
         <v>8</v>
       </c>
-      <c r="V6" s="36">
+      <c r="V6" s="26">
         <v>9</v>
       </c>
-      <c r="W6" s="37">
+      <c r="W6" s="27">
         <v>10</v>
       </c>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="57">
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="42">
         <v>1</v>
       </c>
-      <c r="AA6" s="58">
+      <c r="AA6" s="43">
         <v>2</v>
       </c>
-      <c r="AB6" s="58">
+      <c r="AB6" s="43">
         <v>3</v>
       </c>
-      <c r="AC6" s="58">
+      <c r="AC6" s="43">
         <v>4</v>
       </c>
-      <c r="AD6" s="58">
+      <c r="AD6" s="43">
         <v>5</v>
       </c>
-      <c r="AE6" s="58">
+      <c r="AE6" s="43">
         <v>6</v>
       </c>
-      <c r="AF6" s="58">
+      <c r="AF6" s="43">
         <v>7</v>
       </c>
-      <c r="AG6" s="58">
+      <c r="AG6" s="43">
         <v>8</v>
       </c>
-      <c r="AH6" s="58">
+      <c r="AH6" s="43">
         <v>9</v>
       </c>
-      <c r="AI6" s="59">
+      <c r="AI6" s="44">
         <v>10</v>
       </c>
       <c r="AK6" s="6" t="s">
@@ -1479,1747 +1558,1924 @@
       <c r="AU6" s="7">
         <v>0.35</v>
       </c>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="12">
         <v>576</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="13">
         <v>488</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="13">
         <v>424</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="13">
         <v>392</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="13">
         <v>344</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="13">
         <v>320</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="13">
         <v>300</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="13">
         <v>268</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="13">
         <v>252</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="13">
         <v>404</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="29">
         <v>580</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="30">
         <v>440</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="30">
         <v>364</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="30">
         <v>324</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="30">
         <v>284</v>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="30">
         <v>276</v>
       </c>
-      <c r="T7" s="40">
+      <c r="T7" s="30">
         <v>248</v>
       </c>
-      <c r="U7" s="40">
+      <c r="U7" s="30">
         <v>224</v>
       </c>
-      <c r="V7" s="40">
+      <c r="V7" s="30">
         <v>204</v>
       </c>
-      <c r="W7" s="40">
+      <c r="W7" s="30">
         <v>180</v>
       </c>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="38" t="s">
+      <c r="X7" s="14"/>
+      <c r="Y7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="39">
+      <c r="Z7" s="29">
         <v>592</v>
       </c>
-      <c r="AA7" s="40">
+      <c r="AA7" s="30">
         <v>492</v>
       </c>
-      <c r="AB7" s="40">
+      <c r="AB7" s="30">
         <v>400</v>
       </c>
-      <c r="AC7" s="40">
+      <c r="AC7" s="30">
         <v>336</v>
       </c>
-      <c r="AD7" s="40">
+      <c r="AD7" s="30">
         <v>296</v>
       </c>
-      <c r="AE7" s="40">
+      <c r="AE7" s="30">
         <v>268</v>
       </c>
-      <c r="AF7" s="40">
+      <c r="AF7" s="30">
         <v>248</v>
       </c>
-      <c r="AG7" s="40">
+      <c r="AG7" s="30">
         <v>212</v>
       </c>
-      <c r="AH7" s="40">
+      <c r="AH7" s="30">
         <v>188</v>
       </c>
-      <c r="AI7" s="40">
+      <c r="AI7" s="30">
         <v>180</v>
       </c>
+      <c r="AV7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW7" s="65">
+        <v>5</v>
+      </c>
+      <c r="AX7" s="66">
+        <v>2.99</v>
+      </c>
+      <c r="AY7" s="66">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="16">
         <v>1.2</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="17">
         <v>1.2</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="17">
         <v>1.2</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="17">
         <v>1.2</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="17">
         <v>1.2</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="17">
         <v>1.2</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="17">
         <v>1.2</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="17">
         <v>1.2</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="17">
         <v>1.2</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="17">
         <v>1.2</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="32">
         <v>1.2</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="32">
         <v>1.2</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="32">
         <v>1.2</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="32">
         <v>1.2</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="32">
         <v>1.2</v>
       </c>
-      <c r="S8" s="42">
+      <c r="S8" s="32">
         <v>1.2</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="32">
         <v>1.2</v>
       </c>
-      <c r="U8" s="42">
+      <c r="U8" s="32">
         <v>1.2</v>
       </c>
-      <c r="V8" s="42">
+      <c r="V8" s="32">
         <v>1.2</v>
       </c>
-      <c r="W8" s="42">
+      <c r="W8" s="32">
         <v>1.2</v>
       </c>
-      <c r="Y8" s="41" t="s">
+      <c r="Y8" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Z8" s="42">
+      <c r="Z8" s="32">
         <v>1.2</v>
       </c>
-      <c r="AA8" s="42">
+      <c r="AA8" s="32">
         <v>1.2</v>
       </c>
-      <c r="AB8" s="42">
+      <c r="AB8" s="32">
         <v>1.2</v>
       </c>
-      <c r="AC8" s="42">
+      <c r="AC8" s="32">
         <v>1.2</v>
       </c>
-      <c r="AD8" s="42">
+      <c r="AD8" s="32">
         <v>1.2</v>
       </c>
-      <c r="AE8" s="42">
+      <c r="AE8" s="32">
         <v>1.2</v>
       </c>
-      <c r="AF8" s="42">
+      <c r="AF8" s="32">
         <v>1.2</v>
       </c>
-      <c r="AG8" s="42">
+      <c r="AG8" s="32">
         <v>1.2</v>
       </c>
-      <c r="AH8" s="42">
+      <c r="AH8" s="32">
         <v>1.2</v>
       </c>
-      <c r="AI8" s="42">
+      <c r="AI8" s="32">
         <v>1.2</v>
       </c>
+      <c r="AV8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW8" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="AX8" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="AY8" s="17">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="16">
         <v>2E-3</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="17">
         <v>2E-3</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="17">
         <f>H8/H7</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="33">
         <v>2E-3</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="33">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="33">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="R9" s="43">
+      <c r="R9" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="S9" s="43">
+      <c r="S9" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="T9" s="43">
+      <c r="T9" s="33">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="U9" s="43">
+      <c r="U9" s="33">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V9" s="43">
+      <c r="V9" s="33">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="W9" s="43">
+      <c r="W9" s="33">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Y9" s="41" t="s">
+      <c r="Y9" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Z9" s="43">
+      <c r="Z9" s="33">
         <v>2E-3</v>
       </c>
-      <c r="AA9" s="43">
+      <c r="AA9" s="33">
         <v>2E-3</v>
       </c>
-      <c r="AB9" s="43">
+      <c r="AB9" s="33">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AC9" s="43">
+      <c r="AC9" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AD9" s="43">
+      <c r="AD9" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AE9" s="43">
+      <c r="AE9" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AF9" s="43">
+      <c r="AF9" s="33">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AG9" s="43">
+      <c r="AG9" s="33">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AH9" s="43">
+      <c r="AH9" s="33">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AI9" s="43">
+      <c r="AI9" s="33">
         <v>7.0000000000000001E-3</v>
       </c>
+      <c r="AQ9" s="60">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="AV9" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW9" s="18">
+        <f>AW8/AW7</f>
+        <v>2E-3</v>
+      </c>
+      <c r="AX9" s="23">
+        <f t="shared" ref="AX9:AY9" si="0">AX8/AX7</f>
+        <v>3.3444816053511705E-3</v>
+      </c>
+      <c r="AY9" s="23">
+        <f t="shared" si="0"/>
+        <v>4.9751243781094535E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="19">
         <v>114.1</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="20">
         <v>97.6</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="20">
         <v>85.1</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="20">
         <v>78.400000000000006</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="20">
         <v>69</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="20">
         <v>64.400000000000006</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="20">
         <v>60</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="20">
         <v>53.5</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="20">
         <v>50.1</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="20">
         <v>80.7</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="44">
+      <c r="N10" s="34">
         <v>192.74</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="35">
         <v>146.38999999999999</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="35">
         <v>120.66</v>
       </c>
-      <c r="Q10" s="45">
+      <c r="Q10" s="35">
         <v>108.06</v>
       </c>
-      <c r="R10" s="45">
+      <c r="R10" s="35">
         <v>93.85</v>
       </c>
-      <c r="S10" s="45">
+      <c r="S10" s="35">
         <v>91.24</v>
       </c>
-      <c r="T10" s="45">
+      <c r="T10" s="35">
         <v>82.94</v>
       </c>
-      <c r="U10" s="45">
+      <c r="U10" s="35">
         <v>75.05</v>
       </c>
-      <c r="V10" s="45">
+      <c r="V10" s="35">
         <v>67.33</v>
       </c>
-      <c r="W10" s="45">
+      <c r="W10" s="35">
         <v>60.11</v>
       </c>
-      <c r="Y10" s="41" t="s">
+      <c r="Y10" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="44">
+      <c r="Z10" s="34">
         <v>291.8</v>
       </c>
-      <c r="AA10" s="45">
+      <c r="AA10" s="35">
         <v>242.35</v>
       </c>
-      <c r="AB10" s="45">
+      <c r="AB10" s="35">
         <v>199.57</v>
       </c>
-      <c r="AC10" s="45">
+      <c r="AC10" s="35">
         <v>165.06</v>
       </c>
-      <c r="AD10" s="45">
+      <c r="AD10" s="35">
         <v>145.87</v>
       </c>
-      <c r="AE10" s="45">
+      <c r="AE10" s="35">
         <v>132.36000000000001</v>
       </c>
-      <c r="AF10" s="45">
+      <c r="AF10" s="35">
         <v>122.33</v>
       </c>
-      <c r="AG10" s="45">
+      <c r="AG10" s="35">
         <v>105.38</v>
       </c>
-      <c r="AH10" s="45">
+      <c r="AH10" s="35">
         <v>92.6</v>
       </c>
-      <c r="AI10" s="45">
+      <c r="AI10" s="35">
         <v>88.23</v>
       </c>
+      <c r="AV10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW10" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="AX10" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="AY10" s="17">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="16">
         <v>0.1</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="17">
         <v>0.1</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="17">
         <v>0.1</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="17">
         <v>0.1</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="17">
         <v>0.1</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="17">
         <v>0.1</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="17">
         <v>0.1</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="17">
         <v>0.1</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="17">
         <v>0.1</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="17">
         <v>0.1</v>
       </c>
-      <c r="M11" s="41" t="s">
+      <c r="M11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="36">
         <v>0.01</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="36">
         <v>0.01</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="36">
         <v>0.01</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="36">
         <v>0.01</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="36">
         <v>0.01</v>
       </c>
-      <c r="S11" s="46">
+      <c r="S11" s="36">
         <v>0.01</v>
       </c>
-      <c r="T11" s="46">
+      <c r="T11" s="36">
         <v>0.01</v>
       </c>
-      <c r="U11" s="46">
+      <c r="U11" s="36">
         <v>0.01</v>
       </c>
-      <c r="V11" s="46">
+      <c r="V11" s="36">
         <v>0.01</v>
       </c>
-      <c r="W11" s="46">
+      <c r="W11" s="36">
         <v>0.01</v>
       </c>
-      <c r="Y11" s="41" t="s">
+      <c r="Y11" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="Z11" s="46">
+      <c r="Z11" s="36">
         <v>0.01</v>
       </c>
-      <c r="AA11" s="46">
+      <c r="AA11" s="36">
         <v>0.01</v>
       </c>
-      <c r="AB11" s="46">
+      <c r="AB11" s="36">
         <v>0.01</v>
       </c>
-      <c r="AC11" s="46">
+      <c r="AC11" s="36">
         <v>0.01</v>
       </c>
-      <c r="AD11" s="46">
+      <c r="AD11" s="36">
         <v>0.01</v>
       </c>
-      <c r="AE11" s="46">
+      <c r="AE11" s="36">
         <v>0.01</v>
       </c>
-      <c r="AF11" s="46">
+      <c r="AF11" s="36">
         <v>0.01</v>
       </c>
-      <c r="AG11" s="46">
+      <c r="AG11" s="36">
         <v>0.01</v>
       </c>
-      <c r="AH11" s="46">
+      <c r="AH11" s="36">
         <v>0.01</v>
       </c>
-      <c r="AI11" s="46">
+      <c r="AI11" s="36">
         <v>0.01</v>
       </c>
+      <c r="AV11" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW11" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="AX11" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="AY11" s="17">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="16">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="17">
         <v>1E-3</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="17">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="17">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="17">
         <v>1.4E-3</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="17">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="17">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="17">
         <v>1.9E-3</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="17">
         <v>2E-3</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="17">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="37">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="O12" s="47">
+      <c r="O12" s="37">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="37">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="Q12" s="47">
+      <c r="Q12" s="37">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="37">
         <v>1.1E-4</v>
       </c>
-      <c r="S12" s="47">
+      <c r="S12" s="37">
         <v>1.1E-4</v>
       </c>
-      <c r="T12" s="47">
+      <c r="T12" s="37">
         <v>1.2E-4</v>
       </c>
-      <c r="U12" s="47">
+      <c r="U12" s="37">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="V12" s="47">
+      <c r="V12" s="37">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="W12" s="47">
+      <c r="W12" s="37">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="Y12" s="41" t="s">
+      <c r="Y12" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Z12" s="47">
+      <c r="Z12" s="37">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="AA12" s="47">
+      <c r="AA12" s="37">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="AB12" s="47">
+      <c r="AB12" s="37">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="AC12" s="47">
+      <c r="AC12" s="37">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="AD12" s="47">
+      <c r="AD12" s="37">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AE12" s="47">
+      <c r="AE12" s="37">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AF12" s="47">
+      <c r="AF12" s="37">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AG12" s="47">
+      <c r="AG12" s="37">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="AH12" s="47">
+      <c r="AH12" s="37">
         <v>1.1E-4</v>
       </c>
-      <c r="AI12" s="47">
+      <c r="AI12" s="37">
         <v>1.1E-4</v>
       </c>
+      <c r="AV12" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW12" s="21">
+        <f>AW11/AW10</f>
+        <v>2.777777777777778E-2</v>
+      </c>
+      <c r="AX12" s="22">
+        <f t="shared" ref="AX12:AY12" si="1">AX11/AX10</f>
+        <v>2.777777777777778E-2</v>
+      </c>
+      <c r="AY12" s="22">
+        <f t="shared" si="1"/>
+        <v>2.777777777777778E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="23">
-        <f t="shared" ref="B13:K13" si="0">B7/B10</f>
+      <c r="B13" s="18">
+        <f t="shared" ref="B13:K13" si="2">B7/B10</f>
         <v>5.04820333041192</v>
       </c>
-      <c r="C13" s="28">
-        <f t="shared" si="0"/>
+      <c r="C13" s="23">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D13" s="27">
-        <f t="shared" si="0"/>
+      <c r="D13" s="22">
+        <f t="shared" si="2"/>
         <v>4.9823736780258523</v>
       </c>
-      <c r="E13" s="27">
-        <f t="shared" si="0"/>
+      <c r="E13" s="22">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F13" s="27">
-        <f t="shared" si="0"/>
+      <c r="F13" s="22">
+        <f t="shared" si="2"/>
         <v>4.9855072463768115</v>
       </c>
-      <c r="G13" s="27">
-        <f t="shared" si="0"/>
+      <c r="G13" s="22">
+        <f t="shared" si="2"/>
         <v>4.9689440993788816</v>
       </c>
-      <c r="H13" s="27">
-        <f t="shared" si="0"/>
+      <c r="H13" s="22">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I13" s="27">
-        <f t="shared" si="0"/>
+      <c r="I13" s="22">
+        <f t="shared" si="2"/>
         <v>5.009345794392523</v>
       </c>
-      <c r="J13" s="27">
-        <f t="shared" si="0"/>
+      <c r="J13" s="22">
+        <f t="shared" si="2"/>
         <v>5.0299401197604787</v>
       </c>
-      <c r="K13" s="27">
-        <f t="shared" si="0"/>
+      <c r="K13" s="22">
+        <f t="shared" si="2"/>
         <v>5.0061957868649314</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="43">
-        <f t="shared" ref="N13:W13" si="1">N7/N10</f>
+      <c r="N13" s="33">
+        <f t="shared" ref="N13:W13" si="3">N7/N10</f>
         <v>3.0092352391823178</v>
       </c>
-      <c r="O13" s="48">
-        <f t="shared" si="1"/>
+      <c r="O13" s="38">
+        <f t="shared" si="3"/>
         <v>3.0056697861875814</v>
       </c>
-      <c r="P13" s="48">
-        <f t="shared" si="1"/>
+      <c r="P13" s="38">
+        <f t="shared" si="3"/>
         <v>3.0167412564230069</v>
       </c>
-      <c r="Q13" s="48">
-        <f t="shared" si="1"/>
+      <c r="Q13" s="38">
+        <f t="shared" si="3"/>
         <v>2.9983342587451416</v>
       </c>
-      <c r="R13" s="48">
-        <f t="shared" si="1"/>
+      <c r="R13" s="38">
+        <f t="shared" si="3"/>
         <v>3.0261054874800215</v>
       </c>
-      <c r="S13" s="48">
-        <f t="shared" si="1"/>
+      <c r="S13" s="38">
+        <f t="shared" si="3"/>
         <v>3.0249890398947832</v>
       </c>
-      <c r="T13" s="48">
-        <f t="shared" si="1"/>
+      <c r="T13" s="38">
+        <f t="shared" si="3"/>
         <v>2.9901133349409212</v>
       </c>
-      <c r="U13" s="48">
-        <f t="shared" si="1"/>
+      <c r="U13" s="38">
+        <f t="shared" si="3"/>
         <v>2.9846768820786145</v>
       </c>
-      <c r="V13" s="48">
-        <f t="shared" si="1"/>
+      <c r="V13" s="38">
+        <f t="shared" si="3"/>
         <v>3.0298529630179711</v>
       </c>
-      <c r="W13" s="45">
-        <f t="shared" si="1"/>
+      <c r="W13" s="35">
+        <f t="shared" si="3"/>
         <v>2.9945100648810516</v>
       </c>
-      <c r="Y13" s="41" t="s">
+      <c r="Y13" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="Z13" s="43">
-        <f>Z7/Z10</f>
+      <c r="Z13" s="33">
+        <f t="shared" ref="Z13:AI13" si="4">Z7/Z10</f>
         <v>2.0287868403015765</v>
       </c>
-      <c r="AA13" s="48">
-        <f>AA7/AA10</f>
+      <c r="AA13" s="38">
+        <f t="shared" si="4"/>
         <v>2.0301217247782133</v>
       </c>
-      <c r="AB13" s="48">
-        <f>AB7/AB10</f>
+      <c r="AB13" s="38">
+        <f t="shared" si="4"/>
         <v>2.0043092649195771</v>
       </c>
-      <c r="AC13" s="48">
-        <f>AC7/AC10</f>
+      <c r="AC13" s="38">
+        <f t="shared" si="4"/>
         <v>2.0356234096692112</v>
       </c>
-      <c r="AD13" s="48">
-        <f>AD7/AD10</f>
+      <c r="AD13" s="38">
+        <f t="shared" si="4"/>
         <v>2.0292040858298486</v>
       </c>
-      <c r="AE13" s="48">
-        <f>AE7/AE10</f>
+      <c r="AE13" s="38">
+        <f t="shared" si="4"/>
         <v>2.0247809005741915</v>
       </c>
-      <c r="AF13" s="48">
-        <f>AF7/AF10</f>
+      <c r="AF13" s="38">
+        <f t="shared" si="4"/>
         <v>2.0273031962723782</v>
       </c>
-      <c r="AG13" s="48">
-        <f>AG7/AG10</f>
+      <c r="AG13" s="38">
+        <f t="shared" si="4"/>
         <v>2.0117669386980452</v>
       </c>
-      <c r="AH13" s="48">
-        <f>AH7/AH10</f>
+      <c r="AH13" s="38">
+        <f t="shared" si="4"/>
         <v>2.0302375809935205</v>
       </c>
-      <c r="AI13" s="48">
-        <f>AI7/AI10</f>
+      <c r="AI13" s="38">
+        <f t="shared" si="4"/>
         <v>2.0401224073444406</v>
       </c>
+      <c r="AV13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW13" s="16">
+        <v>500</v>
+      </c>
+      <c r="AX13" s="17">
+        <v>300</v>
+      </c>
+      <c r="AY13" s="17">
+        <v>200</v>
+      </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="17">
         <f>C13*C15</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="17">
         <v>0.02</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="17">
         <v>0.02</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="17">
         <v>0.02</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="17">
         <v>0.03</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="17">
         <v>0.03</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="17">
         <v>0.03</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="17">
         <v>0.04</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="17">
         <v>0.02</v>
       </c>
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="43">
+      <c r="N14" s="33">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O14" s="43">
+      <c r="O14" s="33">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P14" s="43">
+      <c r="P14" s="33">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="Q14" s="33">
         <v>1.2E-2</v>
       </c>
-      <c r="R14" s="43">
+      <c r="R14" s="33">
         <v>1.2E-2</v>
       </c>
-      <c r="S14" s="43">
+      <c r="S14" s="33">
         <v>1.2E-2</v>
       </c>
-      <c r="T14" s="43">
+      <c r="T14" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U14" s="43">
+      <c r="U14" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V14" s="43">
+      <c r="V14" s="33">
         <v>1.9E-2</v>
       </c>
-      <c r="W14" s="44">
+      <c r="W14" s="34">
         <v>0.02</v>
       </c>
-      <c r="Y14" s="41" t="s">
+      <c r="Y14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="Z14" s="43">
+      <c r="Z14" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AA14" s="43">
+      <c r="AA14" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AB14" s="43">
+      <c r="AB14" s="33">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AC14" s="43">
+      <c r="AC14" s="33">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AD14" s="43">
+      <c r="AD14" s="33">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AE14" s="43">
+      <c r="AE14" s="33">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF14" s="43">
+      <c r="AF14" s="33">
         <v>0.01</v>
       </c>
-      <c r="AG14" s="43">
+      <c r="AG14" s="33">
         <v>1.2E-2</v>
       </c>
-      <c r="AH14" s="43">
+      <c r="AH14" s="33">
         <v>1.2E-2</v>
       </c>
-      <c r="AI14" s="43">
+      <c r="AI14" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="AV14" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW14" s="16">
+        <v>2</v>
+      </c>
+      <c r="AX14" s="17">
+        <v>2</v>
+      </c>
+      <c r="AY14" s="17">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="21">
-        <f t="shared" ref="B15:K15" si="2">B12+B9</f>
+      <c r="B15" s="16">
+        <f t="shared" ref="B15:K15" si="5">B12+B9</f>
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="C15" s="22">
-        <f t="shared" si="2"/>
+      <c r="C15" s="17">
+        <f t="shared" si="5"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D15" s="22">
-        <f t="shared" si="2"/>
+      <c r="D15" s="17">
+        <f t="shared" si="5"/>
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="E15" s="22">
-        <f t="shared" si="2"/>
+      <c r="E15" s="17">
+        <f t="shared" si="5"/>
         <v>4.3E-3</v>
       </c>
-      <c r="F15" s="22">
-        <f t="shared" si="2"/>
+      <c r="F15" s="17">
+        <f t="shared" si="5"/>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="G15" s="22">
-        <f t="shared" si="2"/>
+      <c r="G15" s="17">
+        <f t="shared" si="5"/>
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="H15" s="22">
-        <f t="shared" si="2"/>
+      <c r="H15" s="17">
+        <f t="shared" si="5"/>
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="I15" s="22">
-        <f t="shared" si="2"/>
+      <c r="I15" s="17">
+        <f t="shared" si="5"/>
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="J15" s="22">
-        <f t="shared" si="2"/>
+      <c r="J15" s="17">
+        <f t="shared" si="5"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K15" s="22">
-        <f t="shared" si="2"/>
+      <c r="K15" s="17">
+        <f t="shared" si="5"/>
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M15" s="41" t="s">
+      <c r="M15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="47">
+      <c r="N15" s="37">
         <f>N12+N9</f>
         <v>2.0500000000000002E-3</v>
       </c>
-      <c r="O15" s="47">
-        <f t="shared" ref="O15:W15" si="3">O12+O9</f>
+      <c r="O15" s="37">
+        <f t="shared" ref="O15:V15" si="6">O12+O9</f>
         <v>3.0700000000000002E-3</v>
       </c>
-      <c r="P15" s="47">
-        <f t="shared" si="3"/>
+      <c r="P15" s="37">
+        <f t="shared" si="6"/>
         <v>3.0800000000000003E-3</v>
       </c>
-      <c r="Q15" s="47">
-        <f t="shared" si="3"/>
+      <c r="Q15" s="37">
+        <f t="shared" si="6"/>
         <v>4.0899999999999999E-3</v>
       </c>
-      <c r="R15" s="47">
-        <f t="shared" si="3"/>
+      <c r="R15" s="37">
+        <f t="shared" si="6"/>
         <v>4.1099999999999999E-3</v>
       </c>
-      <c r="S15" s="47">
-        <f t="shared" si="3"/>
+      <c r="S15" s="37">
+        <f t="shared" si="6"/>
         <v>4.1099999999999999E-3</v>
       </c>
-      <c r="T15" s="47">
-        <f t="shared" si="3"/>
+      <c r="T15" s="37">
+        <f t="shared" si="6"/>
         <v>5.1200000000000004E-3</v>
       </c>
-      <c r="U15" s="47">
-        <f t="shared" si="3"/>
+      <c r="U15" s="37">
+        <f t="shared" si="6"/>
         <v>5.13E-3</v>
       </c>
-      <c r="V15" s="47">
-        <f t="shared" si="3"/>
+      <c r="V15" s="37">
+        <f t="shared" si="6"/>
         <v>6.1500000000000001E-3</v>
       </c>
-      <c r="W15" s="47">
+      <c r="W15" s="37">
         <f>W12+W9</f>
         <v>7.1700000000000002E-3</v>
       </c>
-      <c r="Y15" s="41" t="s">
+      <c r="Y15" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="Z15" s="47">
+      <c r="Z15" s="37">
         <f>Z12+Z9</f>
         <v>2.0300000000000001E-3</v>
       </c>
-      <c r="AA15" s="47">
-        <f t="shared" ref="AA15:AI15" si="4">AA12+AA9</f>
+      <c r="AA15" s="37">
+        <f t="shared" ref="AA15:AI15" si="7">AA12+AA9</f>
         <v>2.0400000000000001E-3</v>
       </c>
-      <c r="AB15" s="47">
-        <f t="shared" si="4"/>
+      <c r="AB15" s="37">
+        <f t="shared" si="7"/>
         <v>3.0500000000000002E-3</v>
       </c>
-      <c r="AC15" s="47">
-        <f t="shared" si="4"/>
+      <c r="AC15" s="37">
+        <f t="shared" si="7"/>
         <v>4.0600000000000002E-3</v>
       </c>
-      <c r="AD15" s="47">
-        <f t="shared" si="4"/>
+      <c r="AD15" s="37">
+        <f t="shared" si="7"/>
         <v>4.0699999999999998E-3</v>
       </c>
-      <c r="AE15" s="47">
-        <f t="shared" si="4"/>
+      <c r="AE15" s="37">
+        <f t="shared" si="7"/>
         <v>4.0800000000000003E-3</v>
       </c>
-      <c r="AF15" s="47">
-        <f t="shared" si="4"/>
+      <c r="AF15" s="37">
+        <f t="shared" si="7"/>
         <v>5.0800000000000003E-3</v>
       </c>
-      <c r="AG15" s="47">
-        <f t="shared" si="4"/>
+      <c r="AG15" s="37">
+        <f t="shared" si="7"/>
         <v>6.0899999999999999E-3</v>
       </c>
-      <c r="AH15" s="47">
-        <f t="shared" si="4"/>
+      <c r="AH15" s="37">
+        <f t="shared" si="7"/>
         <v>6.11E-3</v>
       </c>
-      <c r="AI15" s="47">
-        <f t="shared" si="4"/>
+      <c r="AI15" s="37">
+        <f t="shared" si="7"/>
         <v>7.11E-3</v>
       </c>
+      <c r="AV15" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW15" s="16">
+        <f>AW14/AW13</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AX15" s="23">
+        <f t="shared" ref="AX15:AY15" si="8">AX14/AX13</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="AY15" s="17">
+        <f t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="26">
-        <f>B13*(1+B13/$N3)</f>
+      <c r="B16" s="21">
+        <f t="shared" ref="B16:K16" si="9">B13*(1+B13/$N3)</f>
         <v>5.0991720441422839</v>
       </c>
-      <c r="C16" s="22">
-        <f>C13*(1+C13/$N3)</f>
+      <c r="C16" s="17">
+        <f t="shared" si="9"/>
         <v>5.05</v>
       </c>
-      <c r="D16" s="27">
-        <f>D13*(1+D13/$N3)</f>
+      <c r="D16" s="22">
+        <f t="shared" si="9"/>
         <v>5.0320217729608228</v>
       </c>
-      <c r="E16" s="22">
-        <f>E13*(1+E13/$N3)</f>
+      <c r="E16" s="17">
+        <f t="shared" si="9"/>
         <v>5.05</v>
       </c>
-      <c r="F16" s="27">
-        <f>F13*(1+F13/$N3)</f>
+      <c r="F16" s="22">
+        <f t="shared" si="9"/>
         <v>5.0352178113841628</v>
       </c>
-      <c r="G16" s="27">
-        <f>G13*(1+G13/$N3)</f>
+      <c r="G16" s="22">
+        <f t="shared" si="9"/>
         <v>5.0183249103043863</v>
       </c>
-      <c r="H16" s="22">
-        <f>H13*(1+H13/$N3)</f>
+      <c r="H16" s="17">
+        <f t="shared" si="9"/>
         <v>5.05</v>
       </c>
-      <c r="I16" s="27">
-        <f>I13*(1+I13/$N3)</f>
+      <c r="I16" s="22">
+        <f t="shared" si="9"/>
         <v>5.0595328849681191</v>
       </c>
-      <c r="J16" s="27">
-        <f>J13*(1+J13/$N3)</f>
+      <c r="J16" s="22">
+        <f t="shared" si="9"/>
         <v>5.0805407149772304</v>
       </c>
-      <c r="K16" s="27">
-        <f>K13*(1+K13/$N3)</f>
+      <c r="K16" s="22">
+        <f t="shared" si="9"/>
         <v>5.0563197793777794</v>
       </c>
-      <c r="M16" s="41" t="s">
+      <c r="M16" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="43">
-        <f>N13*(1+N13/$N3)</f>
+      <c r="N16" s="33">
+        <f t="shared" ref="N16:W16" si="10">N13*(1+N13/$N3)</f>
         <v>3.0273462326317908</v>
       </c>
-      <c r="O16" s="45">
-        <f>O13*(1+O13/$N3)</f>
+      <c r="O16" s="35">
+        <f t="shared" si="10"/>
         <v>3.0237378879147832</v>
       </c>
-      <c r="P16" s="45">
-        <f>P13*(1+P13/$N3)</f>
+      <c r="P16" s="35">
+        <f t="shared" si="10"/>
         <v>3.0349427120394163</v>
       </c>
-      <c r="Q16" s="45">
-        <f>Q13*(1+Q13/$N3)</f>
+      <c r="Q16" s="35">
+        <f t="shared" si="10"/>
         <v>3.0163142753994716</v>
       </c>
-      <c r="R16" s="45">
-        <f>R13*(1+R13/$N3)</f>
+      <c r="R16" s="35">
+        <f t="shared" si="10"/>
         <v>3.0444201163227351</v>
       </c>
-      <c r="S16" s="45">
-        <f>S13*(1+S13/$N3)</f>
+      <c r="S16" s="35">
+        <f t="shared" si="10"/>
         <v>3.0432901572777502</v>
       </c>
-      <c r="T16" s="45">
-        <f>T13*(1+T13/$N3)</f>
+      <c r="T16" s="35">
+        <f t="shared" si="10"/>
         <v>3.0079948904525042</v>
       </c>
-      <c r="U16" s="45">
-        <f>U13*(1+U13/$N3)</f>
+      <c r="U16" s="35">
+        <f t="shared" si="10"/>
         <v>3.0024934742594436</v>
       </c>
-      <c r="V16" s="45">
-        <f>V13*(1+V13/$N3)</f>
+      <c r="V16" s="35">
+        <f t="shared" si="10"/>
         <v>3.0482129809729885</v>
       </c>
-      <c r="W16" s="45">
-        <f>W13*(1+W13/$N3)</f>
+      <c r="W16" s="35">
+        <f t="shared" si="10"/>
         <v>3.0124442459383993</v>
       </c>
-      <c r="Y16" s="41" t="s">
+      <c r="Y16" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Z16" s="43">
-        <f>Z13*(1+Z13/$N3)</f>
+      <c r="Z16" s="33">
+        <f t="shared" ref="Z16:AI16" si="11">Z13*(1+Z13/$N3)</f>
         <v>2.0370187923883383</v>
       </c>
-      <c r="AA16" s="48">
-        <f>AA13*(1+AA13/$N3)</f>
+      <c r="AA16" s="38">
+        <f t="shared" si="11"/>
         <v>2.0383645132130463</v>
       </c>
-      <c r="AB16" s="48">
-        <f>AB13*(1+AB13/$N3)</f>
+      <c r="AB16" s="38">
+        <f t="shared" si="11"/>
         <v>2.0123437761784619</v>
       </c>
-      <c r="AC16" s="48">
-        <f>AC13*(1+AC13/$N3)</f>
+      <c r="AC16" s="38">
+        <f t="shared" si="11"/>
         <v>2.0439109350011977</v>
       </c>
-      <c r="AD16" s="48">
-        <f>AD13*(1+AD13/$N3)</f>
+      <c r="AD16" s="38">
+        <f t="shared" si="11"/>
         <v>2.0374394242737455</v>
       </c>
-      <c r="AE16" s="48">
-        <f>AE13*(1+AE13/$N3)</f>
+      <c r="AE16" s="38">
+        <f t="shared" si="11"/>
         <v>2.0329803759648515</v>
       </c>
-      <c r="AF16" s="48">
-        <f>AF13*(1+AF13/$N3)</f>
+      <c r="AF16" s="38">
+        <f t="shared" si="11"/>
         <v>2.0355231127716107</v>
       </c>
-      <c r="AG16" s="48">
-        <f>AG13*(1+AG13/$N3)</f>
+      <c r="AG16" s="38">
+        <f t="shared" si="11"/>
         <v>2.0198613511293226</v>
       </c>
-      <c r="AH16" s="48">
-        <f>AH13*(1+AH13/$N3)</f>
+      <c r="AH16" s="38">
+        <f t="shared" si="11"/>
         <v>2.0384813102640775</v>
       </c>
-      <c r="AI16" s="48">
-        <f>AI13*(1+AI13/$N3)</f>
+      <c r="AI16" s="38">
+        <f t="shared" si="11"/>
         <v>2.0484466062183384</v>
       </c>
+      <c r="AV16" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW16" s="67">
+        <f>AW7*$AQ9*AW10*AW10/(4*AW13)</f>
+        <v>1.0178760197630918E-3</v>
+      </c>
+      <c r="AX16" s="68">
+        <f t="shared" ref="AX16:AY16" si="12">AX7*$AQ9*AX10*AX10/(4*AX13)</f>
+        <v>1.0144830996972149E-3</v>
+      </c>
+      <c r="AY16" s="68">
+        <f t="shared" si="12"/>
+        <v>1.0229653998619073E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="16">
         <v>0.05</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="17">
         <v>0.05</v>
       </c>
-      <c r="D17" s="22">
-        <f t="shared" ref="D17:K17" si="5">3*D14</f>
+      <c r="D17" s="17">
+        <f t="shared" ref="D17:K17" si="13">3*D14</f>
         <v>0.06</v>
       </c>
-      <c r="E17" s="22">
-        <f t="shared" si="5"/>
+      <c r="E17" s="17">
+        <f t="shared" si="13"/>
         <v>0.06</v>
       </c>
-      <c r="F17" s="22">
-        <f t="shared" si="5"/>
+      <c r="F17" s="17">
+        <f t="shared" si="13"/>
         <v>0.06</v>
       </c>
-      <c r="G17" s="22">
-        <f t="shared" si="5"/>
+      <c r="G17" s="17">
+        <f t="shared" si="13"/>
         <v>0.09</v>
       </c>
-      <c r="H17" s="22">
-        <f t="shared" si="5"/>
+      <c r="H17" s="17">
+        <f t="shared" si="13"/>
         <v>0.09</v>
       </c>
-      <c r="I17" s="22">
-        <f t="shared" si="5"/>
+      <c r="I17" s="17">
+        <f t="shared" si="13"/>
         <v>0.09</v>
       </c>
-      <c r="J17" s="22">
-        <f t="shared" si="5"/>
+      <c r="J17" s="17">
+        <f t="shared" si="13"/>
         <v>0.12</v>
       </c>
-      <c r="K17" s="22">
-        <f t="shared" si="5"/>
+      <c r="K17" s="17">
+        <f t="shared" si="13"/>
         <v>0.06</v>
       </c>
-      <c r="M17" s="41" t="s">
+      <c r="M17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="33">
         <f>N14*3</f>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="O17" s="46">
+      <c r="O17" s="36">
         <v>0.03</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="36">
         <v>0.03</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="36">
         <v>0.04</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="36">
         <v>0.04</v>
       </c>
-      <c r="S17" s="46">
+      <c r="S17" s="36">
         <v>0.04</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="36">
         <v>0.05</v>
       </c>
-      <c r="U17" s="46">
+      <c r="U17" s="36">
         <v>0.05</v>
       </c>
-      <c r="V17" s="46">
+      <c r="V17" s="36">
         <v>0.06</v>
       </c>
-      <c r="W17" s="46">
+      <c r="W17" s="36">
         <f>W14*3</f>
         <v>0.06</v>
       </c>
-      <c r="Y17" s="41" t="s">
+      <c r="Y17" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="Z17" s="46">
+      <c r="Z17" s="36">
         <f>Z14*3</f>
         <v>1.2E-2</v>
       </c>
-      <c r="AA17" s="46">
-        <f t="shared" ref="AA17:AI17" si="6">AA14*3</f>
+      <c r="AA17" s="36">
+        <f t="shared" ref="AA17:AI17" si="14">AA14*3</f>
         <v>1.2E-2</v>
       </c>
-      <c r="AB17" s="46">
-        <f t="shared" si="6"/>
+      <c r="AB17" s="36">
+        <f t="shared" si="14"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="AC17" s="46">
-        <f t="shared" si="6"/>
+      <c r="AC17" s="36">
+        <f t="shared" si="14"/>
         <v>2.4E-2</v>
       </c>
-      <c r="AD17" s="46">
-        <f t="shared" si="6"/>
+      <c r="AD17" s="36">
+        <f t="shared" si="14"/>
         <v>2.4E-2</v>
       </c>
-      <c r="AE17" s="46">
-        <f t="shared" si="6"/>
+      <c r="AE17" s="36">
+        <f t="shared" si="14"/>
         <v>2.4E-2</v>
       </c>
-      <c r="AF17" s="46">
-        <f t="shared" si="6"/>
+      <c r="AF17" s="36">
+        <f t="shared" si="14"/>
         <v>0.03</v>
       </c>
-      <c r="AG17" s="46">
-        <f t="shared" si="6"/>
+      <c r="AG17" s="36">
+        <f t="shared" si="14"/>
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="AH17" s="46">
-        <f t="shared" si="6"/>
+      <c r="AH17" s="36">
+        <f t="shared" si="14"/>
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="AI17" s="46">
-        <f t="shared" si="6"/>
+      <c r="AI17" s="36">
+        <f t="shared" si="14"/>
         <v>4.4999999999999998E-2</v>
       </c>
+      <c r="AV17" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW17" s="67">
+        <f>AW16*AW18</f>
+        <v>3.4381590000886663E-5</v>
+      </c>
+      <c r="AX17" s="68">
+        <f t="shared" ref="AX17:AY17" si="15">AX16*AX18</f>
+        <v>3.8336226833225482E-5</v>
+      </c>
+      <c r="AY17" s="68">
+        <f t="shared" si="15"/>
+        <v>4.3734739649154179E-5</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:51" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="21">
         <v>0.01</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="22">
         <v>0.01</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="17">
         <v>1.2E-2</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="17">
         <v>1.2E-2</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="17">
         <v>1.2E-2</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="17">
         <v>0.02</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="17">
         <v>0.02</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="17">
         <v>0.02</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="17">
         <v>0.02</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="17">
         <v>1.2E-2</v>
       </c>
-      <c r="M18" s="41" t="s">
+      <c r="M18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="33">
         <f>N17/N16</f>
         <v>5.9458015756433304E-3</v>
       </c>
-      <c r="O18" s="44">
-        <f t="shared" ref="O18:W18" si="7">O17/O16</f>
+      <c r="O18" s="34">
+        <f t="shared" ref="O18:V18" si="16">O17/O16</f>
         <v>9.9214948887942356E-3</v>
       </c>
-      <c r="P18" s="44">
-        <f t="shared" si="7"/>
+      <c r="P18" s="34">
+        <f t="shared" si="16"/>
         <v>9.8848653323807371E-3</v>
       </c>
-      <c r="Q18" s="43">
-        <f t="shared" si="7"/>
+      <c r="Q18" s="33">
+        <f t="shared" si="16"/>
         <v>1.3261217614567873E-2</v>
       </c>
-      <c r="R18" s="43">
-        <f t="shared" si="7"/>
+      <c r="R18" s="33">
+        <f t="shared" si="16"/>
         <v>1.313879112332066E-2</v>
       </c>
-      <c r="S18" s="43">
-        <f t="shared" si="7"/>
+      <c r="S18" s="33">
+        <f t="shared" si="16"/>
         <v>1.3143669493473587E-2</v>
       </c>
-      <c r="T18" s="44">
-        <f t="shared" si="7"/>
+      <c r="T18" s="34">
+        <f t="shared" si="16"/>
         <v>1.6622368661164285E-2</v>
       </c>
-      <c r="U18" s="44">
-        <f t="shared" si="7"/>
+      <c r="U18" s="34">
+        <f t="shared" si="16"/>
         <v>1.6652825536059609E-2</v>
       </c>
-      <c r="V18" s="44">
-        <f t="shared" si="7"/>
+      <c r="V18" s="34">
+        <f t="shared" si="16"/>
         <v>1.9683663961318088E-2</v>
       </c>
-      <c r="W18" s="44">
+      <c r="W18" s="34">
         <f>W17/W16</f>
         <v>1.9917381070503278E-2</v>
       </c>
-      <c r="Y18" s="41" t="s">
+      <c r="Y18" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Z18" s="43">
+      <c r="Z18" s="33">
         <f>Z17/Z16</f>
         <v>5.8909618530963038E-3</v>
       </c>
-      <c r="AA18" s="43">
-        <f t="shared" ref="AA18:AI18" si="8">AA17/AA16</f>
+      <c r="AA18" s="33">
+        <f t="shared" ref="AA18:AI18" si="17">AA17/AA16</f>
         <v>5.8870726615449969E-3</v>
       </c>
-      <c r="AB18" s="43">
-        <f t="shared" si="8"/>
+      <c r="AB18" s="33">
+        <f t="shared" si="17"/>
         <v>8.9447937340919308E-3</v>
       </c>
-      <c r="AC18" s="43">
-        <f t="shared" si="8"/>
+      <c r="AC18" s="33">
+        <f t="shared" si="17"/>
         <v>1.1742194627470857E-2</v>
       </c>
-      <c r="AD18" s="43">
-        <f t="shared" si="8"/>
+      <c r="AD18" s="33">
+        <f t="shared" si="17"/>
         <v>1.1779491313492626E-2</v>
       </c>
-      <c r="AE18" s="43">
-        <f t="shared" si="8"/>
+      <c r="AE18" s="33">
+        <f t="shared" si="17"/>
         <v>1.1805327923349783E-2</v>
       </c>
-      <c r="AF18" s="43">
-        <f t="shared" si="8"/>
+      <c r="AF18" s="33">
+        <f t="shared" si="17"/>
         <v>1.4738226164944584E-2</v>
       </c>
-      <c r="AG18" s="43">
-        <f t="shared" si="8"/>
+      <c r="AG18" s="33">
+        <f t="shared" si="17"/>
         <v>1.7823005514646873E-2</v>
       </c>
-      <c r="AH18" s="43">
-        <f t="shared" si="8"/>
+      <c r="AH18" s="33">
+        <f t="shared" si="17"/>
         <v>1.7660206065532355E-2</v>
       </c>
-      <c r="AI18" s="43">
-        <f t="shared" si="8"/>
+      <c r="AI18" s="33">
+        <f t="shared" si="17"/>
         <v>2.1967865729766337E-2</v>
       </c>
+      <c r="AV18" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW18" s="21">
+        <f>AW15+AW12+AW9</f>
+        <v>3.3777777777777782E-2</v>
+      </c>
+      <c r="AX18" s="22">
+        <f t="shared" ref="AX18:AY18" si="18">AX15+AX12+AX9</f>
+        <v>3.7788926049795613E-2</v>
+      </c>
+      <c r="AY18" s="22">
+        <f t="shared" si="18"/>
+        <v>4.2752902155887229E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="24">
-        <f t="shared" ref="B19:K19" si="9">B7/B16</f>
+      <c r="B19" s="19">
+        <f t="shared" ref="B19:K19" si="19">B7/B16</f>
         <v>112.95951480234615</v>
       </c>
-      <c r="C19" s="25">
-        <f t="shared" si="9"/>
+      <c r="C19" s="20">
+        <f t="shared" si="19"/>
         <v>96.633663366336634</v>
       </c>
-      <c r="D19" s="25">
-        <f t="shared" si="9"/>
+      <c r="D19" s="20">
+        <f t="shared" si="19"/>
         <v>84.260366733373644</v>
       </c>
-      <c r="E19" s="25">
-        <f t="shared" si="9"/>
+      <c r="E19" s="20">
+        <f t="shared" si="19"/>
         <v>77.623762376237622</v>
       </c>
-      <c r="F19" s="25">
-        <f t="shared" si="9"/>
+      <c r="F19" s="20">
+        <f t="shared" si="19"/>
         <v>68.318792331534837</v>
       </c>
-      <c r="G19" s="25">
-        <f t="shared" si="9"/>
+      <c r="G19" s="20">
+        <f t="shared" si="19"/>
         <v>63.766297662976633</v>
       </c>
-      <c r="H19" s="25">
-        <f t="shared" si="9"/>
+      <c r="H19" s="20">
+        <f t="shared" si="19"/>
         <v>59.405940594059409</v>
       </c>
-      <c r="I19" s="25">
-        <f t="shared" si="9"/>
+      <c r="I19" s="20">
+        <f t="shared" si="19"/>
         <v>52.969316751795105</v>
       </c>
-      <c r="J19" s="25">
-        <f t="shared" si="9"/>
+      <c r="J19" s="20">
+        <f t="shared" si="19"/>
         <v>49.601019682238565</v>
       </c>
-      <c r="K19" s="25">
-        <f t="shared" si="9"/>
+      <c r="K19" s="20">
+        <f t="shared" si="19"/>
         <v>79.900009814987499</v>
       </c>
-      <c r="M19" s="41" t="s">
+      <c r="M19" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="49">
-        <f t="shared" ref="N19:W19" si="10">N7/N16</f>
+      <c r="N19" s="39">
+        <f t="shared" ref="N19:W19" si="20">N7/N16</f>
         <v>191.58693965961839</v>
       </c>
-      <c r="O19" s="50">
-        <f t="shared" si="10"/>
+      <c r="O19" s="40">
+        <f t="shared" si="20"/>
         <v>145.51525836898213</v>
       </c>
-      <c r="P19" s="50">
-        <f t="shared" si="10"/>
+      <c r="P19" s="40">
+        <f t="shared" si="20"/>
         <v>119.93636603288627</v>
       </c>
-      <c r="Q19" s="50">
-        <f t="shared" si="10"/>
+      <c r="Q19" s="40">
+        <f t="shared" si="20"/>
         <v>107.41586267799977</v>
       </c>
-      <c r="R19" s="50">
-        <f t="shared" si="10"/>
+      <c r="R19" s="40">
+        <f t="shared" si="20"/>
         <v>93.28541697557668</v>
       </c>
-      <c r="S19" s="50">
-        <f t="shared" si="10"/>
+      <c r="S19" s="40">
+        <f t="shared" si="20"/>
         <v>90.691319504967751</v>
       </c>
-      <c r="T19" s="50">
-        <f t="shared" si="10"/>
+      <c r="T19" s="40">
+        <f t="shared" si="20"/>
         <v>82.446948559374846</v>
       </c>
-      <c r="U19" s="50">
-        <f t="shared" si="10"/>
+      <c r="U19" s="40">
+        <f t="shared" si="20"/>
         <v>74.604658401547056</v>
       </c>
-      <c r="V19" s="50">
-        <f t="shared" si="10"/>
+      <c r="V19" s="40">
+        <f t="shared" si="20"/>
         <v>66.924457468481506</v>
       </c>
-      <c r="W19" s="50">
-        <f t="shared" si="10"/>
+      <c r="W19" s="40">
+        <f t="shared" si="20"/>
         <v>59.752143211509839</v>
       </c>
-      <c r="Y19" s="41" t="s">
+      <c r="Y19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="Z19" s="49">
-        <f>Z7/Z16</f>
+      <c r="Z19" s="39">
+        <f t="shared" ref="Z19:AI19" si="21">Z7/Z16</f>
         <v>290.62078475275098</v>
       </c>
-      <c r="AA19" s="50">
-        <f>AA7/AA16</f>
+      <c r="AA19" s="40">
+        <f t="shared" si="21"/>
         <v>241.36997912334485</v>
       </c>
-      <c r="AB19" s="50">
-        <f>AB7/AB16</f>
+      <c r="AB19" s="40">
+        <f t="shared" si="21"/>
         <v>198.77319409093178</v>
       </c>
-      <c r="AC19" s="50">
-        <f>AC7/AC16</f>
+      <c r="AC19" s="40">
+        <f t="shared" si="21"/>
         <v>164.39072478459201</v>
       </c>
-      <c r="AD19" s="50">
-        <f>AD7/AD16</f>
+      <c r="AD19" s="40">
+        <f t="shared" si="21"/>
         <v>145.28039286640904</v>
       </c>
-      <c r="AE19" s="50">
-        <f>AE7/AE16</f>
+      <c r="AE19" s="40">
+        <f t="shared" si="21"/>
         <v>131.82616181073925</v>
       </c>
-      <c r="AF19" s="50">
-        <f>AF7/AF16</f>
+      <c r="AF19" s="40">
+        <f t="shared" si="21"/>
         <v>121.8360029635419</v>
       </c>
-      <c r="AG19" s="50">
-        <f>AG7/AG16</f>
+      <c r="AG19" s="40">
+        <f t="shared" si="21"/>
         <v>104.95769914180936</v>
       </c>
-      <c r="AH19" s="50">
-        <f>AH7/AH16</f>
+      <c r="AH19" s="40">
+        <f t="shared" si="21"/>
         <v>92.225520564446725</v>
       </c>
-      <c r="AI19" s="50">
-        <f>AI7/AI16</f>
+      <c r="AI19" s="40">
+        <f t="shared" si="21"/>
         <v>87.871462919065351</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="24">
-        <f t="shared" ref="B20:K20" si="11">B19*B21</f>
+      <c r="B20" s="19">
+        <f t="shared" ref="B20:K20" si="22">B19*B21</f>
         <v>1.3555141776281538</v>
       </c>
-      <c r="C20" s="25">
-        <f t="shared" si="11"/>
+      <c r="C20" s="20">
+        <f t="shared" si="22"/>
         <v>1.1596039603960397</v>
       </c>
-      <c r="D20" s="25">
-        <f t="shared" si="11"/>
+      <c r="D20" s="20">
+        <f t="shared" si="22"/>
         <v>1.2639055010006046</v>
       </c>
-      <c r="E20" s="25">
-        <f t="shared" si="11"/>
+      <c r="E20" s="20">
+        <f t="shared" si="22"/>
         <v>1.1643564356435643</v>
       </c>
-      <c r="F20" s="25">
-        <f t="shared" si="11"/>
+      <c r="F20" s="20">
+        <f t="shared" si="22"/>
         <v>1.0247818849730226</v>
       </c>
-      <c r="G20" s="25">
-        <f t="shared" si="11"/>
+      <c r="G20" s="20">
+        <f t="shared" si="22"/>
         <v>1.5303911439114393</v>
       </c>
-      <c r="H20" s="25">
-        <f t="shared" si="11"/>
+      <c r="H20" s="20">
+        <f t="shared" si="22"/>
         <v>1.4257425742574259</v>
       </c>
-      <c r="I20" s="25">
-        <f t="shared" si="11"/>
+      <c r="I20" s="20">
+        <f t="shared" si="22"/>
         <v>1.2712636020430825</v>
       </c>
-      <c r="J20" s="25">
-        <f t="shared" si="11"/>
+      <c r="J20" s="20">
+        <f t="shared" si="22"/>
         <v>1.2400254920559641</v>
       </c>
-      <c r="K20" s="25">
-        <f t="shared" si="11"/>
+      <c r="K20" s="20">
+        <f t="shared" si="22"/>
         <v>1.1985001472248125</v>
       </c>
-      <c r="M20" s="41" t="s">
+      <c r="M20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="49">
+      <c r="N20" s="39">
         <f>N19*N21</f>
         <v>1.5223118070200796</v>
       </c>
-      <c r="O20" s="49">
-        <f t="shared" ref="O20:W20" si="12">O19*O21</f>
+      <c r="O20" s="39">
+        <f t="shared" ref="O20:W20" si="23">O19*O21</f>
         <v>1.880274667256375</v>
       </c>
-      <c r="P20" s="49">
-        <f t="shared" si="12"/>
+      <c r="P20" s="39">
+        <f t="shared" si="23"/>
         <v>1.5453639247888629</v>
       </c>
-      <c r="Q20" s="49">
-        <f t="shared" si="12"/>
+      <c r="Q20" s="39">
+        <f t="shared" si="23"/>
         <v>1.8541285809414931</v>
       </c>
-      <c r="R20" s="49">
-        <f t="shared" si="12"/>
+      <c r="R20" s="39">
+        <f t="shared" si="23"/>
         <v>1.5987992763962799</v>
       </c>
-      <c r="S20" s="49">
-        <f t="shared" si="12"/>
+      <c r="S20" s="39">
+        <f t="shared" si="23"/>
         <v>1.5547820075201819</v>
       </c>
-      <c r="T20" s="49">
-        <f t="shared" si="12"/>
+      <c r="T20" s="39">
+        <f t="shared" si="23"/>
         <v>1.7826983167388506</v>
       </c>
-      <c r="U20" s="49">
-        <f t="shared" si="12"/>
+      <c r="U20" s="39">
+        <f t="shared" si="23"/>
         <v>1.6154016525460222</v>
       </c>
-      <c r="V20" s="49">
-        <f t="shared" si="12"/>
+      <c r="V20" s="39">
+        <f t="shared" si="23"/>
         <v>1.7188652764140038</v>
       </c>
-      <c r="W20" s="49">
-        <f t="shared" si="12"/>
+      <c r="W20" s="39">
+        <f t="shared" si="23"/>
         <v>1.6083712086034958</v>
       </c>
-      <c r="Y20" s="41" t="s">
+      <c r="Y20" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Z20" s="49">
+      <c r="Z20" s="39">
         <f>Z19*Z21</f>
         <v>2.2932775262008698</v>
       </c>
-      <c r="AA20" s="49">
-        <f t="shared" ref="AA20:AI20" si="13">AA19*AA21</f>
+      <c r="AA20" s="39">
+        <f t="shared" ref="AA20:AI20" si="24">AA19*AA21</f>
         <v>1.90370256366142</v>
       </c>
-      <c r="AB20" s="49">
-        <f t="shared" si="13"/>
+      <c r="AB20" s="39">
+        <f t="shared" si="24"/>
         <v>2.3743048032828011</v>
       </c>
-      <c r="AC20" s="49">
-        <f t="shared" si="13"/>
+      <c r="AC20" s="39">
+        <f t="shared" si="24"/>
         <v>2.5878707845100446</v>
       </c>
-      <c r="AD20" s="49">
-        <f t="shared" si="13"/>
+      <c r="AD20" s="39">
+        <f t="shared" si="24"/>
         <v>2.2924506972562977</v>
       </c>
-      <c r="AE20" s="49">
-        <f t="shared" si="13"/>
+      <c r="AE20" s="39">
+        <f t="shared" si="24"/>
         <v>2.083555716295304</v>
       </c>
-      <c r="AF20" s="49">
-        <f t="shared" si="13"/>
+      <c r="AF20" s="39">
+        <f t="shared" si="24"/>
         <v>2.4048265815272485</v>
       </c>
-      <c r="AG20" s="49">
-        <f t="shared" si="13"/>
+      <c r="AG20" s="39">
+        <f t="shared" si="24"/>
         <v>2.5004078454599719</v>
       </c>
-      <c r="AH20" s="49">
-        <f t="shared" si="13"/>
+      <c r="AH20" s="39">
+        <f t="shared" si="24"/>
         <v>2.1820748210558012</v>
       </c>
-      <c r="AI20" s="49">
-        <f t="shared" si="13"/>
+      <c r="AI20" s="39">
+        <f t="shared" si="24"/>
         <v>2.5454487393176266</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:51" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="23">
-        <f>B18+B9</f>
+      <c r="B21" s="18">
+        <f t="shared" ref="B21:K21" si="25">B18+B9</f>
         <v>1.2E-2</v>
       </c>
-      <c r="C21" s="28">
-        <f>C18+C9</f>
+      <c r="C21" s="23">
+        <f t="shared" si="25"/>
         <v>1.2E-2</v>
       </c>
-      <c r="D21" s="28">
-        <f>D18+D9</f>
+      <c r="D21" s="23">
+        <f t="shared" si="25"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E21" s="28">
-        <f>E18+E9</f>
+      <c r="E21" s="23">
+        <f t="shared" si="25"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F21" s="28">
-        <f>F18+F9</f>
+      <c r="F21" s="23">
+        <f t="shared" si="25"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G21" s="27">
-        <f>G18+G9</f>
+      <c r="G21" s="22">
+        <f t="shared" si="25"/>
         <v>2.4E-2</v>
       </c>
-      <c r="H21" s="27">
-        <f>H18+H9</f>
+      <c r="H21" s="22">
+        <f t="shared" si="25"/>
         <v>2.4E-2</v>
       </c>
-      <c r="I21" s="27">
-        <f>I18+I9</f>
+      <c r="I21" s="22">
+        <f t="shared" si="25"/>
         <v>2.4E-2</v>
       </c>
-      <c r="J21" s="27">
-        <f>J18+J9</f>
+      <c r="J21" s="22">
+        <f t="shared" si="25"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K21" s="28">
-        <f>K18+K9</f>
+      <c r="K21" s="23">
+        <f t="shared" si="25"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M21" s="51" t="s">
+      <c r="M21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="33">
         <f>N18+N9</f>
         <v>7.9458015756433305E-3</v>
       </c>
-      <c r="O21" s="43">
-        <f t="shared" ref="O21:W21" si="14">O18+O9</f>
+      <c r="O21" s="33">
+        <f t="shared" ref="O21:W21" si="26">O18+O9</f>
         <v>1.2921494888794235E-2</v>
       </c>
-      <c r="P21" s="43">
-        <f t="shared" si="14"/>
+      <c r="P21" s="33">
+        <f t="shared" si="26"/>
         <v>1.2884865332380736E-2</v>
       </c>
-      <c r="Q21" s="43">
-        <f t="shared" si="14"/>
+      <c r="Q21" s="33">
+        <f t="shared" si="26"/>
         <v>1.7261217614567871E-2</v>
       </c>
-      <c r="R21" s="43">
-        <f t="shared" si="14"/>
+      <c r="R21" s="33">
+        <f t="shared" si="26"/>
         <v>1.713879112332066E-2</v>
       </c>
-      <c r="S21" s="43">
-        <f t="shared" si="14"/>
+      <c r="S21" s="33">
+        <f t="shared" si="26"/>
         <v>1.7143669493473589E-2</v>
       </c>
-      <c r="T21" s="44">
-        <f t="shared" si="14"/>
+      <c r="T21" s="34">
+        <f t="shared" si="26"/>
         <v>2.1622368661164286E-2</v>
       </c>
-      <c r="U21" s="44">
-        <f t="shared" si="14"/>
+      <c r="U21" s="34">
+        <f t="shared" si="26"/>
         <v>2.165282553605961E-2</v>
       </c>
-      <c r="V21" s="44">
-        <f t="shared" si="14"/>
+      <c r="V21" s="34">
+        <f t="shared" si="26"/>
         <v>2.568366396131809E-2</v>
       </c>
-      <c r="W21" s="44">
-        <f t="shared" si="14"/>
+      <c r="W21" s="34">
+        <f t="shared" si="26"/>
         <v>2.6917381070503277E-2</v>
       </c>
-      <c r="Y21" s="51" t="s">
+      <c r="Y21" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="Z21" s="43">
+      <c r="Z21" s="33">
         <f>Z18+Z9</f>
         <v>7.8909618530963038E-3</v>
       </c>
-      <c r="AA21" s="43">
-        <f t="shared" ref="AA21:AI21" si="15">AA18+AA9</f>
+      <c r="AA21" s="33">
+        <f t="shared" ref="AA21:AI21" si="27">AA18+AA9</f>
         <v>7.8870726615449978E-3</v>
       </c>
-      <c r="AB21" s="43">
-        <f t="shared" si="15"/>
+      <c r="AB21" s="33">
+        <f t="shared" si="27"/>
         <v>1.1944793734091932E-2</v>
       </c>
-      <c r="AC21" s="43">
-        <f t="shared" si="15"/>
+      <c r="AC21" s="33">
+        <f t="shared" si="27"/>
         <v>1.5742194627470858E-2</v>
       </c>
-      <c r="AD21" s="43">
-        <f t="shared" si="15"/>
+      <c r="AD21" s="33">
+        <f t="shared" si="27"/>
         <v>1.5779491313492627E-2</v>
       </c>
-      <c r="AE21" s="43">
-        <f t="shared" si="15"/>
+      <c r="AE21" s="33">
+        <f t="shared" si="27"/>
         <v>1.5805327923349783E-2</v>
       </c>
-      <c r="AF21" s="44">
-        <f t="shared" si="15"/>
+      <c r="AF21" s="34">
+        <f t="shared" si="27"/>
         <v>1.9738226164944583E-2</v>
       </c>
-      <c r="AG21" s="44">
-        <f t="shared" si="15"/>
+      <c r="AG21" s="34">
+        <f t="shared" si="27"/>
         <v>2.3823005514646875E-2</v>
       </c>
-      <c r="AH21" s="44">
-        <f t="shared" si="15"/>
+      <c r="AH21" s="34">
+        <f t="shared" si="27"/>
         <v>2.3660206065532353E-2</v>
       </c>
-      <c r="AI21" s="44">
-        <f t="shared" si="15"/>
+      <c r="AI21" s="34">
+        <f t="shared" si="27"/>
         <v>2.8967865729766337E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AV5:AV6"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="N5:W5"/>
